--- a/examples/UK OGD/bristol bus stops/profile.xlsx
+++ b/examples/UK OGD/bristol bus stops/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,22 @@
       <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>100053346</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>18904</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1600</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['0100BAC30684', '0100BAC30685', '0100BAC30742', '0100BAC30743', '0100BAC30946', '0100BAZ02458', '0100BAZ02459', '0100BRA01797', '0100BRA01798', '0100BRA01799', '0100BRA01800', '0100BRA10006', '0100BRA10007', '0100BRA10008', '0100BRA10009', '0100BRA10010', '0100BRA10011', '0100BRA10012', '0100BRA10013', '0100BRA10014', '0100BRA10015', '0100BRA10016', '0100BRA10021', '0100BRA10022', '0100BRA10023', '0100BRA10024', '0100BRA10025', '0100BRA10026', '0100BRA10027', '0100BRA10029', '0100BRA10030', '0100BRA10031', '0100BRA10032', '0100BRA10033', '0100BRA10034', '0100BRA10035', '0100BRA10036', '0100BRA10037', '0100BRA10038', '0100BRA10039', '0100BRA10040', '0100BRA10041', '0100BRA10042', '0100BRA10047', '0100BRA10048', '0100BRA10049', '0100BRA10050', '0100BRA10051', '0100BRA10052', '0100BRA10053', '0100BRA10054', '0100BRA10055', '0100BRA10056', '0100BRA10057', '0100BRA10059', '0100BRA10062', '0100BRA10064', '0100BRA10065', '0100BRA10066', '0100BRA10067', '0100BRA10068', '0100BRA10069', '0100BRA10070', '0100BRA10071', '0100BRA10072', '0100BRA10073', '0100BRA10074', '0100BRA10075', '0100BRA10076', '0100BRA10077', '0100BRA10078', '0100BRA10079', '0100BRA10080', '0100BRA10081', '0100BRA10082', '0100BRA10083', '0100BRA10084', '0100BRA10086', '0100BRA10087', '0100BRA10088', '0100BRA10089', '0100BRA10090', '0100BRA10091', '0100BRA10092', '0100BRA10093', '0100BRA10094', '0100BRA10095', '0100BRA10096', '0100BRA10097', '0100BRA10098', '0100BRA10099', '0100BRA10100', '0100BRA10101', '0100BRA10102', '0100BRA10103', '0100BRA10104', '0100BRA10105', '0100BRA10106', '0100BRA10107', '0100BRA10108', '0100BRA10109', '0100BRA10110', '0100BRA10111', '0100BRA10112', '0100BRA10113', '0100BRA10114', '0100BRA10115', '0100BRA10116', '0100BRA10117', '0100BRA10119', '0100BRA10120', '0100BRA10121', '0100BRA10122', '0100BRA10123', '0100BRA10124', '0100BRA10125', '0100BRA10126', '0100BRA10127', '0100BRA10128', '0100BRA10129', '0100BRA10130', '0100BRA10131', '0100BRA10132', '0100BRA10133', '0100BRA10134', '0100BRA10135', '0100BRA10136', '0100BRA10137', '0100BRA10138', '0100BRA10139', '0100BRA10140', '0100BRA10143', '0100BRA10144', '0100BRA10145', '0100BRA10146', '0100BRA10147', '0100BRA10148', '0100BRA10149', '0100BRA10150', '0100BRA10151', '0100BRA10152', '0100BRA10153', '0100BRA10154', '0100BRA10155', '0100BRA10156', '0100BRA10157', '0100BRA10158', '0100BRA10159', '0100BRA10160', '0100BRA10161', '0100BRA10162', '0100BRA10163', '0100BRA10164', '0100BRA10165', '0100BRA10166', '0100BRA10167', '0100BRA10168', '0100BRA10169', '0100BRA10170', '0100BRA10171', '0100BRA10172', '0100BRA10173', '0100BRA10174', '0100BRA10175', '0100BRA10176', '0100BRA10177', '0100BRA10178', '0100BRA10179', '0100BRA10180', '0100BRA10181', '0100BRA10182', '0100BRA10183', '0100BRA10184', '0100BRA10187', '0100BRA10188', '0100BRA10189', '0100BRA10190', '0100BRA10191', '0100BRA10192', '0100BRA10193', '0100BRA10195', '0100BRA10196', '0100BRA10197', '0100BRA10198', '0100BRA10199', '0100BRA10200', '0100BRA10201', '0100BRA10202', '0100BRA10203', '0100BRA10204', '0100BRA10205', '0100BRA10206', '0100BRA10207', '0100BRA10208', '0100BRA10209', '0100BRA10210', '0100BRA10211', '0100BRA10212', '0100BRA10213', '0100BRA10214', '0100BRA10215', '0100BRA10216', '0100BRA10217', '0100BRA10218', '0100BRA10219', '0100BRA10220', '0100BRA10221', '0100BRA10225', '0100BRA10229', '0100BRA10230', '0100BRA10231', '0100BRA10233', '0100BRA10235', '0100BRA10236', '0100BRA10237', '0100BRA10238', '0100BRA10239', '0100BRA10240', '0100BRA10241', '0100BRA10242', '0100BRA10243', '0100BRA10244', '0100BRA10245', '0100BRA10246', '0100BRA10247', '0100BRA10248', '0100BRA10249', '0100BRA10250', '0100BRA10251', '0100BRA10252', '0100BRA10253', '0100BRA10254', '0100BRA10255', '0100BRA10256', '0100BRA10257', '0100BRA10258', '0100BRA10259', '0100BRA10260', '0100BRA10261', '0100BRA10262', '0100BRA10263', '0100BRA10264', '0100BRA10265', '0100BRA10266', '0100BRA10267', '0100BRA10269', '0100BRA10270', '0100BRA10272', '0100BRA10273', '0100BRA10274', '0100BRA10275', '0100BRA10276', '0100BRA10277', '0100BRA10278', '0100BRA10279', '0100BRA10280', '0100BRA10281', '0100BRA10282', '0100BRA10283', '0100BRA10284', '0100BRA10285', '0100BRA10286', '0100BRA10287', '0100BRA10288', '0100BRA10289', '0100BRA10290', '0100BRA10291', '0100BRA10292', '0100BRA10293', '0100BRA10294', '0100BRA10295', '0100BRA10296', '0100BRA10297', '0100BRA10298', '0100BRA10299', '0100BRA10300', '0100BRA10301', '0100BRA10302', '0100BRA10303', '0100BRA10304', '0100BRA10305', '0100BRA10306', '0100BRA10308', '0100BRA10309', '0100BRA10311', '0100BRA10312', '0100BRA10313', '0100BRA10315', '0100BRA10316', '0100BRA10317', '0100BRA10318', '0100BRA10319', '0100BRA10320', '0100BRA10321', '0100BRA10323', '0100BRA10324', '0100BRA10325', '0100BRA10326', '0100BRA10327', '0100BRA10328', '0100BRA10329', '0100BRA10330', '0100BRA10331', '0100BRA10332', '0100BRA10333', '0100BRA10334', '0100BRA10335', '0100BRA10336', '0100BRA10337', '0100BRA10339', '0100BRA10340', '0100BRA10342', '0100BRA10343', '0100BRA10344', '0100BRA10352', '0100BRA10353', '0100BRA10354', '0100BRA10355', '0100BRA10356', '0100BRA10357', '0100BRA10358', '0100BRA10359', '0100BRA10360', '0100BRA10361', '0100BRA10362', '0100BRA10363', '0100BRA10364', '0100BRA10365', '0100BRA10366', '0100BRA10367', '0100BRA10368', '0100BRA10369', '0100BRA10370', '0100BRA10371', '0100BRA10372', '0100BRA10373', '0100BRA10374', '0100BRA10375', '0100BRA10376', '0100BRA10377', '0100BRA10378', '0100BRA10381', '0100BRA10382', '0100BRA10383', '0100BRA10384', '0100BRA10385', '0100BRA10386', '0100BRA10392', '0100BRA10393', '0100BRA10394', '0100BRA10395', '0100BRA10396', '0100BRA10397', '0100BRA10398', '0100BRA10399', '0100BRA10400', '0100BRA10401', '0100BRA10403', '0100BRA10404', '0100BRA10405', '0100BRA10406', '0100BRA10407', '0100BRA10408', '0100BRA10409', '0100BRA10410', '0100BRA10411', '0100BRA10412', '0100BRA10413', '0100BRA10414', '0100BRA10415', '0100BRA10417', '0100BRA10418', '0100BRA10419', '0100BRA10421', '0100BRA10423', '0100BRA10425', '0100BRA10426', '0100BRA10427', '0100BRA10428', '0100BRA10429', '0100BRA10430', '0100BRA10431', '0100BRA10432', '0100BRA10433', '0100BRA10434', '0100BRA10435', '0100BRA10436', '0100BRA10437', '0100BRA10438', '0100BRA10439', '0100BRA10440', '0100BRA10441', '0100BRA10442', '0100BRA10443', '0100BRA10444', '0100BRA10445', '0100BRA10446', '0100BRA10447', '0100BRA10448', '0100BRA10449', '0100BRA10450', '0100BRA10451', '0100BRA10452', '0100BRA10453', '0100BRA10454', '0100BRA10455', '0100BRA10456', '0100BRA10457', '0100BRA10458', '0100BRA10459', '0100BRA10460', '0100BRA10461', '0100BRA10464', '0100BRA10465', '0100BRA10466', '0100BRA10467', '0100BRA10468', '0100BRA10469', '0100BRA10470', '0100BRA10471', '0100BRA10472', '0100BRA10473', '0100BRA10474', '0100BRA10475', '0100BRA10476', '0100BRA10477', '0100BRA10478', '0100BRA10479', '0100BRA10480', '0100BRA10481', '0100BRA10482', '0100BRA10483', '0100BRA10484', '0100BRA10485', '0100BRA10486', '0100BRA10487', '0100BRA10488', '0100BRA10489', '0100BRA10490', '0100BRA10491', '0100BRA10492', '0100BRA10493', '0100BRA10494', '0100BRA10495', '0100BRA10496', '0100BRA10497', '0100BRA10498', '0100BRA10499', '0100BRA10500', '0100BRA10501', '0100BRA10502', '0100BRA10503', '0100BRA10504', '0100BRA10505', '0100BRA10506', '0100BRA10507', '0100BRA10508', '0100BRA10509', '0100BRA10510', '0100BRA10511', '0100BRA10512', '0100BRA10513', '0100BRA10514', '0100BRA10515', '0100BRA10516', '0100BRA10521', '0100BRA10522', '0100BRA10523', '0100BRA10524', '0100BRA10525', '0100BRA10527', '0100BRA10528', '0100BRA10529', '0100BRA10530', '0100BRA10531', '0100BRA10532', '0100BRA10533', '0100BRA10534', '0100BRA10535', '0100BRA10536', '0100BRA10537', '0100BRA10538', '0100BRA10539', '0100BRA10540', '0100BRA10543', '0100BRA10544', '0100BRA10545', '0100BRA10546', '0100BRA10547', '0100BRA10548', '0100BRA10549', '0100BRA10550', '0100BRA10551', '0100BRA10553', '0100BRA10554', '0100BRA10555', '0100BRA10556', '0100BRA10557', '0100BRA10558', '0100BRA10559', '0100BRA10560', '0100BRA10561', '0100BRA10562', '0100BRA10563', '0100BRA10564', '0100BRA10565', '0100BRA10566', '0100BRA10567', '0100BRA10570', '0100BRA10571', '0100BRA10572', '0100BRA10574', '0100BRA10575', '0100BRA10576', '0100BRA10577', '0100BRA10578', '0100BRA10579', '0100BRA10580', '0100BRA10583', '0100BRA10584', '0100BRA10585', '0100BRA10586', '0100BRA10587', '0100BRA10588', '0100BRA10589', '0100BRA10590', '0100BRA10591', '0100BRA10592', '0100BRA10593', '0100BRA10594', '0100BRA10595', '0100BRA10596', '0100BRA10598', '0100BRA10599', '0100BRA10600', '0100BRA10601', '0100BRA10602', '0100BRA10603', '0100BRA10604', '0100BRA10605', '0100BRA10606', '0100BRA10607', '0100BRA10608', '0100BRA10609', '0100BRA10614', '0100BRA10616', '0100BRA10617', '0100BRA10618', '0100BRA10619', '0100BRA10620', '0100BRA10621', '0100BRA10622', '0100BRA10623', '0100BRA10624', '0100BRA10625', '0100BRA10626', '0100BRA10627', '0100BRA10628', '0100BRA10629', '0100BRA10630', '0100BRA10631', '0100BRA10632', '0100BRA10633', '0100BRA10634', '0100BRA10635', '0100BRA10636', '0100BRA10637', '0100BRA10638', '0100BRA10639', '0100BRA10640', '0100BRA10641', '0100BRA10642', '0100BRA10643', '0100BRA10644', '0100BRA10645', '0100BRA10647', '0100BRA10648', '0100BRA10649', '0100BRA10650', '0100BRA10651', '0100BRA10652', '0100BRA10653', '0100BRA10654', '0100BRA10655', '0100BRA10656', '0100BRA10657', '0100BRA10658', '0100BRA10659', '0100BRA10660', '0100BRA10661', '0100BRA10662', '0100BRA10663', '0100BRA10665', '0100BRA10666', '0100BRA10667', '0100BRA10668', '0100BRA10669', '0100BRA10673', '0100BRA10674', '0100BRA10675', '0100BRA10676', '0100BRA10677', '0100BRA10678', '0100BRA10679', '0100BRA10680', '0100BRA10681', '0100BRA10682', '0100BRA10683', '0100BRA10684', '0100BRA10685', '0100BRA10686', '0100BRA10687', '0100BRA10691', '0100BRA10692', '0100BRA10693', '0100BRA10696', '0100BRA10697', '0100BRA10698', '0100BRA10699', '0100BRA10700', '0100BRA10701', '0100BRA10702', '0100BRA10703', '0100BRA10704', '0100BRA10706', '0100BRA10707', '0100BRA10708', '0100BRA10709', '0100BRA10710', '0100BRA10711', '0100BRA10712', '0100BRA10713', '0100BRA10714', '0100BRA10715', '0100BRA10716', '0100BRA10717', '0100BRA10718', '0100BRA10719', '0100BRA10720', '0100BRA10721', '0100BRA10722', '0100BRA10723', '0100BRA10724', '0100BRA10725', '0100BRA10728', '0100BRA10729', '0100BRA10730', '0100BRA10731', '0100BRA10732', '0100BRA10733', '0100BRA10734', '0100BRA10735', '0100BRA10736', '0100BRA10737', '0100BRA10738', '0100BRA10739', '0100BRA10740', '0100BRA10741', '0100BRA10743', '0100BRA10744', '0100BRA10745', '0100BRA10746', '0100BRA10747', '0100BRA10748', '0100BRA10749', '0100BRA10751', '0100BRA10752', '0100BRA10753', '0100BRA10754', '0100BRA10755', '0100BRA10756', '0100BRA10757', '0100BRA10758', '0100BRA10759', '0100BRA10760', '0100BRA10761', '0100BRA10762', '0100BRA10763', '0100BRA10764', '0100BRA10765', '0100BRA10766', '0100BRA10767', '0100BRA10768', '0100BRA10769', '0100BRA10771', '0100BRA10772', '0100BRA10773', '0100BRA10774', '0100BRA10775', '0100BRA10776', '0100BRA10777', '0100BRA10780', '0100BRA10781', '0100BRA10782', '0100BRA10783', '0100BRA10784', '0100BRA10785', '0100BRA10786', '0100BRA10787', '0100BRA10788', '0100BRA10789', '0100BRA10790', '0100BRA10791', '0100BRA10792', '0100BRA10793', '0100BRA10794', '0100BRA10795', '0100BRA10796', '0100BRA10797', '0100BRA10798', '0100BRA10799', '0100BRA10800', '0100BRA10801', '0100BRA10802', '0100BRA10807', '0100BRA10808', '0100BRA10809', '0100BRA10810', '0100BRA10811', '0100BRA10812', '0100BRA10813', '0100BRA10814', '0100BRA10815', '0100BRA10816', '0100BRA10817', '0100BRA10818', '0100BRA10819', '0100BRA10820', '0100BRA10821', '0100BRA10822', '0100BRA10823', '0100BRA10831', '0100BRA10832', '0100BRA10833', '0100BRA10834', '0100BRA10835', '0100BRA10836', '0100BRA10837', '0100BRA10838', '0100BRA10839', '0100BRA10840', '0100BRA10841', '0100BRA10842', '0100BRA10843', '0100BRA10844', '0100BRA10845', '0100BRA10846', '0100BRA10847', '0100BRA10848', '0100BRA10849', '0100BRA10850', '0100BRA10851', '0100BRA10852', '0100BRA10853', '0100BRA10854', '0100BRA10855', '0100BRA10856', '0100BRA10857', '0100BRA10858', '0100BRA10859', '0100BRA10860', '0100BRA10861', '0100BRA10862', '0100BRA10863', '0100BRA10864', '0100BRA10865', '0100BRA10866', '0100BRA10867', '0100BRA10868', '0100BRA10869', '0100BRA10870', '0100BRA10871', '0100BRA10872', '0100BRA10873', '0100BRA10874', '0100BRA10878', '0100BRA10879', '0100BRA10880', '0100BRA10881', '0100BRA10882', '0100BRA10883', '0100BRA10884', '0100BRA10885', '0100BRA10888', '0100BRA10889', '0100BRA10890', '0100BRA10891', '0100BRA10892', '0100BRA10893', '0100BRA10894', '0100BRA10895', '0100BRA10896', '0100BRA10897', '0100BRA10898', '0100BRA10903', '0100BRA10904', '0100BRA10905', '0100BRA10906', '0100BRA10907', '0100BRA10908', '0100BRA10909', '0100BRA10910', '0100BRA10911', '0100BRA10915', '0100BRA10916', '0100BRA10917', '0100BRA10918', '0100BRA10919', '0100BRA10922', '0100BRA10923', '0100BRA10924', '0100BRA10925', '0100BRA10926', '0100BRA10927', '0100BRA10928', '0100BRA10929', '0100BRA10930', '0100BRA10931', '0100BRA10932', '0100BRA10933', '0100BRA10934', '0100BRA10935', '0100BRA10937', '0100BRA10941', '0100BRA10942', '0100BRA10943', '0100BRA10945', '0100BRA10946', '0100BRA16901', '0100BRA16902', '0100BRA16903', '0100BRA16904', '0100BRA16905', '0100BRA16906', '0100BRA16907', '0100BRA16908', '0100BRA16910', '0100BRA16911', '0100BRA16924', '0100BRA16925', '0100BRA16928', '0100BRA16931', '0100BRA16933', '0100BRA16934', '0100BRA16936', '0100BRA16938', '0100BRA16939', '0100BRA16940', '0100BRA16942', '0100BRA16943', '0100BRA16944', '0100BRA16946', '0100BRA16947', '0100BRA46637', '0100BRA46638', '0100BRA46639', '0100BRA46640', '0100BRA46641', '0100BRA46642', '0100BRA46643', '0100BRA46644', '0100BRA46645', '0100BRA46646', '0100BRA46647', '0100BRA46648', '0100BRA46649', '0100BRA46650', '0100BRA46651', '0100BRA46653', '0100BRA46654', '0100BRA46655', '0100BRA46656', '0100BRA46657', '0100BRA46658', '0100BRA56546', '0100BRA56547', '0100BRA56548', '0100BRA56549', '0100BRA56550', '0100BRA56551', '0100BRA56552', '0100BRA56553', '0100BRA56554', '0100BRA56555', '0100BRA56556', '0100BRA56557', '0100BRA56560', '0100BRA56561', '0100BRA56563', '0100BRA56564', '0100BRA56565', '0100BRA56566', '0100BRA56567', '0100BRA56568', '0100BRA56569', '0100BRA56570', '0100BRA56572', '0100BRA56573', '0100BRA56574', '0100BRA56575', '0100BRA56576', '0100BRA56577', '0100BRA56578', '0100BRA56579', '0100BRA56580', '0100BRA56581', '0100BRC53349', '0100BRC53350', '0100BRC53351', '0100BRC53355', '0100BRC53356', '0100BRC53357', '0100BRC53358', '0100BRC53359', '0100BRC53363', '0100BRC53364', '0100BRC53365', '0100BRC53367', '0100BRC53368', '0100BRC53372', '0100BRC53374', '0100BRC53375', '0100BRC53378', '0100BRC53380', '0100BRC53381', '0100BRC53382', '0100BRC53383', '0100BRC53384', '0100BRC53385', '0100BRC53386', '0100BRC53387', '0100BRC53388', '0100BRC53390', '0100BRC53391', '0100BRC53393', '0100BRC53394', '0100BRC53395', '0100BRC53396', '0100BRC53397', '0100BRC53398', '0100BRC53399', '0100BRC53400', '0100BRC53403', '0100BRC53404', '0100BRC53405', '0100BRC53406', '0100BRC53407', '0100BRC53408', '0100BRP90003', '0100BRP90004', '0100BRP90008', '0100BRP90009', '0100BRP90010', '0100BRP90011', '0100BRP90012', '0100BRP90013', '0100BRP90015', '0100BRP90017', '0100BRP90018', '0100BRP90019', '0100BRP90021', '0100BRP90023', '0100BRP90025', '0100BRP90026', '0100BRP90027', '0100BRP90028', '0100BRP90029', '0100BRP90030', '0100BRP90031', '0100BRP90032', '0100BRP90033', '0100BRP90034', '0100BRP90035', '0100BRP90036', '0100BRP90037', '0100BRP90038', '0100BRP90039', '0100BRP90040', '0100BRP90056', '0100BRP90057', '0100BRP90058', '0100BRP90059', '0100BRP90060', '0100BRP90061', '0100BRP90063', '0100BRP90064', '0100BRP90065', '0100BRP90066', '0100BRP90067', '0100BRP90068', '0100BRP90069', '0100BRP90070', '0100BRP90071', '0100BRP90074', '0100BRP90075', '0100BRP90076', '0100BRP90077', '0100BRP90078', '0100BRP90079', '0100BRP90080', '0100BRP90081', '0100BRP90082', '0100BRP90083', '0100BRP90084', '0100BRP90085', '0100BRP90086', '0100BRP90087', '0100BRP90088', '0100BRP90089', '0100BRP90090', '0100BRP90091', '0100BRP90092', '0100BRP90093', '0100BRP90094', '0100BRP90095', '0100BRP90096', '0100BRP90097', '0100BRP90098', '0100BRP90100', '0100BRP90101', '0100BRP90102', '0100BRP90103', '0100BRP90104', '0100BRP90105', '0100BRP90106', '0100BRP90107', '0100BRP90108', '0100BRP90109', '0100BRP90110', '0100BRP90111', '0100BRP90112', '0100BRP90114', '0100BRP90116', '0100BRP90117', '0100BRP90118', '0100BRP90119', '0100BRP90120', '0100BRP90121', '0100BRP90122', '0100BRP90123', '0100BRP90124', '0100BRP90125', '0100BRP90127', '0100BRP90128', '0100BRP90129', '0100BRP90130', '0100BRP90131', '0100BRP90132', '0100BRP90133', '0100BRP90134', '0100BRP90135', '0100BRP90136', '0100BRP90137', '0100BRP90138', '0100BRP90140', '0100BRP90141', '0100BRP90142', '0100BRP90143', '0100BRP90145', '0100BRP90146', '0100BRP90149', '0100BRP90150', '0100BRP90151', '0100BRP90153', '0100BRP90154', '0100BRP90155', '0100BRP90156', '0100BRP90157', '0100BRP90158', '0100BRP90163', '0100BRP90165', '0100BRP90166', '0100BRP90167', '0100BRP90168', '0100BRP90169', '0100BRP90170', '0100BRP90171', '0100BRP90173', '0100BRP90174', '0100BRP90175', '0100BRP90176', '0100BRP90177', '0100BRP90178', '0100BRP90179', '0100BRP90180', '0100BRP90181', '0100BRP90183', '0100BRP90184', '0100BRP90185', '0100BRP90186', '0100BRP90187', '0100BRP90188', '0100BRP90189', '0100BRP90190', '0100BRP90191', '0100BRP90192', '0100BRP90195', '0100BRP90196', '0100BRP90197', '0100BRP90199', '0100BRP90200', '0100BRP90201', '0100BRP90202', '0100BRP90203', '0100BRP90204', '0100BRP90205', '0100BRP90206', '0100BRP90207', '0100BRP90208', '0100BRP90210', '0100BRP90211', '0100BRP90212', '0100BRP90213', '0100BRP90214', '0100BRP90215', '0100BRP90216', '0100BRP90217', '0100BRP90218', '0100BRP90219', '0100BRP90221', '0100BRP90224', '0100BRP90225', '0100BRP90226', '0100BRP90227', '0100BRP90228', '0100BRP90231', '0100BRP90232', '0100BRP90233', '0100BRP90234', '0100BRP90235', '0100BRP90236', '0100BRP90237', '0100BRP90268', '0100BRP90269', '0100BRP90270', '0100BRP90271', '0100BRP90272', '0100BRP90273', '0100BRP90307', '0100BRP90308', '0100BRP90309', '0100BRP90310', '0100BRP90311', '0100BRP90312', '0100BRP90313', '0100BRP90317', '0100BRP90318', '0100BRP90319', '0100BRP90320', '0100BRP90324', '0100BRP90325', '0100BRP90326', '0100BRP90327', '0100BRP90328', '0100BRP90329', '0100BRP90330', '0100BRP90332', '0100BRP90333', '0100BRP90335', '0100BRP90336', '0100BRP90337', '0100BRP90338', '0100BRP90339', '0100BRP90340', '0100BRP90341', '0100BRP90342', '0100BRP90343', '0100BRP90344', '0100BRP90345', '0100BRP90346', '0100BRP90347', '0100BRP90348', '0100BRP90349', '0100BRP90350', '0100BRP90354', '0100BRP90355', '0100BRP90356', '0100BRP90357', '0100BRP90363', '0100BRP90364', '0100BRP90365', '0100BRP90366', '0100BRP90368', '0100BRP90369', '0100BRP90371', '0100BRP90372', '0100BRP90373', '0100BRP90377', '0100BRP90378', '0100BRP90379', '0100BRP90380', '0100BRP90381', '0100BRP90382', '0100BRP90383', '0100BRP90384', '0100BRP90385', '0100BRP90386', '0100BRP90387', '0100BRP90388', '0100BRP90396', '0100BRP90399', '0100BRP90402', '0100BRP90404', '0100BRP90405', '0100BRP90408', '0100BRP90409', '0100BRP90671', '0100BRP90673', '0100BRP90674', '0100BRP90675', '0100BRP90676', '0100BRP90677', '0100BRP90678', '0100BRP90979', '0100BRP90981', '0100BRP90982', '0100BRP90983', '0100BRP90984', '0100BRP90986', '0100BRP90987', '0100BRP90988', '0100BRP90989', '0100BRP90990', '0100BRP90991', '0100BRP90996', '0100BRP90997', '0100BRP90998', '0100BRP90999', '0100BRP91001', '0100BRP91002', '0100BRP91003', '0100BRP91004', '0100BRP91005', '0100BRP91006', '0100BRP91008', '0100BRP91011', '0100BRP91012', '0100BRP91013', '0100BRP91014', '0100BRP91015', '0100BRP91016', '0100BRP91017', '0100BRP91018', '0100BRP91019', '0100BRP91020', '0100BRP91021', '0100BRP91022', '0100BRP91023', '0100BRP91024', '0100BRP91027', '0100BRP91028', '0100BRP91029', '0100BRP91030', '0100BRP91031', '0100BRP91032', '0100BRP91033', '0100BRP91034', '0100BRP91035', '0100BRP91036', '0100BRP91037', '0100BRP91038', '0100BRP91039', '0100BRP91040', '0100BRP91041', '0100BRP91042', '0100BRP91043', '0100BRP91044', '0100BRP91045', '0100BRP91046', '0100BRP91047', '0100BRP91048', '0100BRP91049', '0100BRP91050', '0100BRP91051', '0100BRP91052', '0100BRP91053', '0100BRP91054', '0100BRP91055', '0100BRP91057', '0100BRP91058', '0100BRP91059', '0100BRP91060', '0100BRP91061', '0100BRP91062', '0100BRP91063', '0100BRP91064', '0100BRP91065', '0100BRP91066', '0100BRP91067', '0100BRP91068', '0100BRP91071', '0100BRP91072', '0100BRP91073', '0100BRP91074', '0100BRP91075', '0100BRP91076', '0100BRP91077', '0100BRP91078', '0100BRP91080', '0100BRP91081', '0100BRP91082', '0100BRP91083', '0100BRP91084', '0100BRP91085', '0100BRP91086', '0100BRP91087', '0100BRP91088', '0100BRP91089', '0100BRP91090', '0100BRP91091', '0100BRP91092', '0100BRP91093', '0100BRP91094', '0100BRP91095', '0100BRP91096', '0100BRP91097', '0100BRP91098', '0100BRP91099', '0100BRP91100', '0100BRP91102', '0100BRP91103', '0100BRP91104', '0100BRP91105', '0100BRP91106', '0100BRP91107', '0100BRP91108', '0100BRP91109', '0100BRP91112', '0100BRP91113', '0100BRP91114', '0100BRP91115', '0100BRP92000', '0100BRP92001', '0100BRP92002', '0100BRP92003', '0100BRP92004', '0100BRP92005', '0100BRP92006', '0100BRP92007', '0100BRP92008', '0100BRP92009', '0100BRP92010', '0100BRP92011', '0100BRP92012', '0100BRP92013', '0100BRP92014', '0100BRP92015', '0100BRP92016', '0100BRP92017', '0100BRP92018', '0100BRP92019', '0100BRP92020', '0100BRP92021', '0100BRP92022', '0100BRP92023', '0100BRP92024', '0100BRP92025', '0100BRP92026', '0100BRP92027', '0100BRP92028', '0100BRP92029', '0100BRP92030', '0100BRP92031', '0100BRP92032', '0100BRP92033', '0100BRP92034', '0100BRP92035', '0100BRP92036', '0100BRP92037', '0100BRP92038', '0100BRP92039', '0100BRP92040', '0100BRP92041', '0100BRP92042', '0100BRP92043', '0100BRP92044', '0100BRP92045', '0100BRP92046', '0100BRP92047', '0100BRP92048', '0100BRP92049', '0100BRP92050', '0100BRP92051', '0100BRP92052', '0100BRP92053', '0100BRP92054', '0100BRP92055', '0100BRP92056', '0100BRP92057', '0100BRP92058', '0100BRP92059', '0100BRP92060', '0100BRP92061', '0100BRP92062', '0100BRP92063', '0100BRP92064', '0100BRP92065', '0100BRP92066', '0100BRP92067', '0100BRP92068', '0100BRP92069', '0100BRP92071', '0100BRP92072', '0100BRP92073', '0100BRP92074', '0100BRP92075', '0100BRP92076', '0100BRP92077', '0100BRP92078', '0100BRP92079', '0100BRP92080', '0100BRP92081', '0100BRP92082', '0100BRX32920', '0100BRX32921', '0100BRX32922', '0100BRX43052', '0100BRX43055', '0100BRZ00678', '0100BRZ00681', '0100BRZ00686', '0100BRZ00687', '0100BRZ00692', '0100BRZ00694', '0100BRZ00695', '0100BRZ00696', '0100BRZ00698', '0100BRZ00699', '0100BRZ00702', '0100BRZ00703', '0100BRZ00704', '0100BRZ00705', '0100BRZ01655', '0100BRZ01656', '0100BRZ01657', '0100BRZ01658', '0100BRZ01659', '0100BRZ01660', '0100BRZ01661', '0100BRZ01662', '0100BRZ01663', '0100BRZ01664', '0100BRZ01665', '0100BRZ01666', '0100BRZ01667', '0100BRZ01668', '0100BRZ01669', '0100BRZ01670', '0100BRZ01671', '0100BRZ01672', '0100BRZ01673', '0100BRZ01674', '0100BRZ01675', '0100BRZ01676', '0100BRZ01677', '0100BRZ01678', '0100BRZ01679', '0100BRZ01680', '0100BRZ01682', '0100BRZ01683', '0100BRZ01684', '0100BRZ01685', '0100BRZ01686', '0100BRZ01687', '0100BRZ01688', '0100BRZ01689', '0100BRZ01690', '0100BRZ01691', '0100BRZ01692', '0100BRZ01693', '0100BRZ01694', '0100BRZ01695', '0100BRZ01696', '0100BRZ01697', '0100BRZ01699', '0100BRZ01700', '0100BRZ01701', '0100BRZ01707', '0100BRZ01708', '0100BRZ01709', '0100BRZ01710', '0100BRZ01713', '0100FBX18331', '0100FBX18336', '0100FBX18337', '0100FBX18339', '0100FBX18342', '0100SGB20368', '0100SGP90563', '0100SGY38500', '0100SGZ01485', '0170BRP91110', '0170BRP91111', '0190SBX18338', '1', '10000001', '1000053203', '1000053204', '1000053205', '1000053206', '1000053207', '1000053208', '1000053209', '1000053210', '1000053211', '1000053212', '1000053214', '1000053216', '1000053217', '1000053218', '1000053219', '1000053220', '1000053221', '1000053222', '1000053223', '1000053227', '1000053228', '1000053229', '1000053230', '1000053231', '1000053276', '1000053287', '1000053288', '1000053305', '1000053310', '1000053311', '1000053312', '100053233', '100053234', '100053236', '100053239', '100053240', '100053241', '100053247', '100053248', '100053249', '100053250', '100053252', '100053254', '100053255', '100053256', '100053257', '100053258', '100053259', '100053260', '100053261', '100053262', '100053263', '100053264', '100053265', '100053266', '100053267', '100053274', '100053275', '100053277', '100053278', '100053279', '100053280', '100053281', '100053283', '100053291', '100053293', '100053294', '100053295', '100053296', '100053297', '100053298', '100053299', '100053300', '100053301', '100053303', '100053304', '100053306', '100053309', '100053313', '100053315', '100053316', '100053317', '100053318', '100053319', '100053320', '100053321', '100053324', '100053325', '100053328', '100053329', '100053330', '100053331', '100053332', '100053333', '100053334', '100053335', '100053337', '100053338', '100053339', '100053340', '100053343', '100053344', '100053345', '100053346']</t>
         </is>
@@ -578,18 +591,26 @@
       <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Withywood</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Brislington</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>16528</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>92</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>["Arno's Vale", 'Ashley Down', 'Ashton Gate', 'Ashton Vale', 'Avonmouth', 'Barton Hill', 'Bedminster', 'Bedminster Down', 'Bishopston', 'Bishopsworth', 'Bower Ashton', 'Brentry', 'Brislington', 'Bristol Bus Station', 'Bristol City Centre', 'Broadmead', 'Broom Hill', 'Broomhill', "Canon's Marsh", 'Clifton', 'Clifton (Bristol)', 'Clifton Down', 'Coombe Dingle', 'Cotham', 'Crofts End', 'Easton', 'Eastville', 'Eastville (Bristol)', 'Filwood Park', 'Fishponds', 'Frenchay', 'Golden Hill', 'Harbour', 'Hartcliffe', 'Headley Park', 'Henbury', 'Hengrove', 'Hengrove Park', 'Henleaze', 'Highridge', 'Highridge (Bristol)', 'Hillfields', 'Horfield', 'Horfield Common', 'Hotwells', "Inn's Court", 'Kingsdown', 'Knowle', 'Lawrence Hill', 'Lawrence Hill (Bristol', 'Lawrence Hill (Bristol)', 'Lawrence Weston', 'Lockleaze', 'Long Ashton', 'Lower Knowle', 'Montpelier', 'Novers Park', 'Old Market', 'Oldbury Court', 'Redcliffe', 'Redfield', 'Redland', 'Sea Mills', 'Shirehampton', 'Sneyd Park', 'Soundwell', 'Southmead', 'Southville', 'Southville (Bristol', 'Southville (Bristol)', 'Speedwell', 'St Andrews', "St Anne's", "St Anne's Park", 'St George', 'St Pauls', 'St Werburghs', 'Stapleton', 'Stockwood', 'Stoke Bishop', 'Temple Meads', 'The Dings', 'Totterdown', 'Two Mile Hill', "Tyndall's Park", 'Westbury Park', 'Westbury on Trym', 'Whitchurch', 'Whitchurch (Bristol)', 'Whitehall', 'Windmill Hill', 'Withywood']</t>
         </is>
@@ -648,18 +669,26 @@
       <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Zetland Rd Jtn (d)</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>The Avenue</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>23125</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>1029</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['Airport Road (a)', 'Airport Road (b)', 'Airport Road (c)', 'Airport Road (d)', 'Akeman Way', 'Alberton Road', 'Alcove Road', 'Aldercombe Road', 'Alfred Road', 'Allison Avenue', 'Allison Road', 'Alma Vale', 'Alverstoke', 'Ambleside Avenue', 'Anchor Road (pa)', 'Anchor Road (pb)', 'Anchor Road (pc)', 'Anchor Road (pd)', 'Anchor Road (pi)', 'Apsley Road (a)', 'Apsley Road (b)', 'Apsley Road (c)', 'Arbutus Drive', 'Arglye Road', 'Arlington Road (a)', 'Arlington Road (b)', 'Arlington Road (c)', 'Armoury Square', 'Arnall Drive', "Arno's Court (a)", "Arno's Court (b)", "Arno's Court (c)", "Arno's Court (d)", "Arno's Vale Cemetry", 'Arnside Road', 'Asda Oatlands Ave', 'Ashfield Road', 'Ashley Down Rd (a)', 'Ashley Down Rd (b)', 'Ashley Down Rd (c)', 'Ashley Park', 'Ashton Drive', 'Ashton Park School', 'Atlas Rd Kensal Rd', 'Avon Crescent', 'Avon Street', 'Avon Way', 'Avonmouth Station', 'Avonmouth Way', 'BRI (hj)', 'BRI (hk)', 'BRI (hl)', 'Badenham Grove', 'Badminton School', 'Badocks Wood Sch', 'Baldwin Street (ba)', 'Baldwin Street (bb)', 'Baldwin Street (bc)', 'Baldwin Street (bd)', 'Baldwin Street (be)', 'Baldwin Street (bi)', 'Baldwin Street (bj)', 'Balmoral Road', 'Baltic Wharf', "Barrack's Lane", 'Barrow Hill Road', "Bath Rd S'wood Rd", 'Bath Street', 'Battson Road', 'Bayswater Avenue', 'Beaconsfield Road', 'Beam Street', 'Bedminster College', 'Bedminster Down (a)', 'Bedminster Down (b)', 'Bedminster Down (c)', 'Bedminster Down Rd', 'Bedminster Pde (a)', 'Bedminster Pde (b)', 'Bedminster Pde (c)', 'Bedminster Pde (d)', 'Bedminster Road', 'Begbrook Lane', 'Begbrook Park', 'Belgrave Road (a)', 'Belgrave Road (b)', 'Belland Drive (a)', 'Belland Drive (b)', 'Belland Drive (c)', 'Belland Drive (d)', 'Bellevue Road', 'Bellvue Road', 'Belvoir Road', 'Beryl Grove', 'Bideford Crescent', 'Bifield Gardens', 'Birchall Road', 'Bishopsworth Baths', 'Bishopsworth Lib.', 'Bishopthorpe Road', 'Bishport Ave (a)', 'Bishport Ave (b)', 'Black Boy Hill (a)', 'Black Boy Hill (b)', 'Black Boy Hill (c)', 'Black Boy Hill (d)', 'Blackberry Hosp (a)', 'Blackberry Hosp (b)', 'Blackberry Hosp (c)', 'Blackhorse Road', 'Blackmoors Lane', 'Blackswarth Rd (d)', 'Blackswarth Road', 'Blaise Castle', 'Blakeney Road', 'Bond Street (ok)', 'Bond Street (ol)', 'Bond Street (om)', 'Bond Street (ou)', 'Bond Street (rb)', 'Bond Street (rc)', 'Bond Street (rd)', 'Boswell Street', 'Bower Ashton Campus', 'Breach Road', 'Brecknock Road', 'Brecon Road', 'Brendon Road', 'Brentry Hill', 'Brentry Hospital', 'Brentry Lane', 'Brentry Roundabout', 'Briar Way', 'Bridge Campus', 'Bridge Valley Road', 'Bridge Walk', 'Bridgwater Road', 'Briery Leaze Road', 'Brigstocke Road', 'Brinkworthy Road', 'Brislington Hill', 'Brislington House', 'Brislington P&amp;R', 'Brislington School', 'Brislington Sq (a)', 'Brislington Sq (b)', 'Bristol Zoo', 'Brixham Road', 'Broad Walk Shops (a)', 'Broad Walk Shops (b)', 'Broad Walk Shops (c)', 'Broad Walk Sq (a)', 'Broad Walk Sq (b)', 'Broad Walk Sq (c)', 'Broad Walk Sq (d)', 'Broad Weir (sa)', 'Broad Weir (sb)', 'Broad Weir (sv)', 'Broad Weir (sw)', 'Broadbury Road', 'Broadlands Drive', 'Brook Road', 'Brooklyn Road (a)', 'Brooklyn Road (b)', 'Broom Hill', 'Broomhill Road', 'Brunswick Street', 'Bryants Hill (a)', 'Bryants Hill (c)', 'Buckingham Road', 'Burghill Road', 'Bus Station Bay 1', 'Bus Station Bay 10', 'Bus Station Bay 11', 'Bus Station Bay 12', 'Bus Station Bay 13', 'Bus Station Bay 14', 'Bus Station Bay 15', 'Bus Station Bay 16', 'Bus Station Bay 17', 'Bus Station Bay 18', 'Bus Station Bay 19', 'Bus Station Bay 2', 'Bus Station Bay 3', 'Bus Station Bay 4', 'Bus Station Bay 5', 'Bus Station Bay 6', 'Bus Station Bay 7', 'Bus Station Bay 8', 'Bus Station Bay 9', 'Cabot Circus A', 'Cabot Circus B', 'Cabot Circus C', 'Cadogan Road', 'Callington Road', 'Cambridge Street', 'Camden Road', 'Cameron Walk', 'Canford Cemetery', 'Canford Park', 'Cannon Street', "Cantock's Close", 'Carisbrooke Road', 'Cassell Road', 'Catherine Mead St', 'Cavan Walk', 'Cedar Park', 'Chakeshill Drive', "Channon's Hill (d)", 'Channons Hill (a)', 'Channons Hill (b)', 'Channons Hill (c)', 'Chapel Green Lane', 'Chapel Lane', 'Chapel Way', 'Charfield Road', 'Charlton Rd Junct', 'Charlton Road', 'Charnwood Road', 'Cheddar Grove', 'Chelston Road', 'Cherington Road', 'Cheriton Place', 'Chessel Street', 'Chester Street', 'Chittening Road', 'Christ Church (a)', 'Christ Church (b)', 'Church Avenue', 'Church Lane', 'Church Parade', 'Church Road', 'Church Street', 'Churchill Drive', 'Churchways Ave (a)', 'Churchways Ave (b)', 'Churchways Ave (c)', 'Clanage Road', 'Clare Avenue (a)', 'Clare Avenue (b)', 'Clare Avenue (c)', 'Clatworthy Drive', 'Clift Road', 'Clifton Dn Stn (ww)', 'Clifton Dn Stn (wx)', 'Clifton Dn Stn (wy)', 'Clifton Dn Stn (wz)', 'Clifton High School', 'Clifton Park', 'Clifton Street', 'Clifton Village', 'Clive Road', 'Clouds Hill Avenue', 'Coaley Road', 'College Green (pe)', 'College Green (ph)', 'College Road', 'Collin Road', 'Colston Girls Sch', 'Colston Street (dj)', 'Comb Paddock', 'Condover Road', 'Coombe Dale', 'Coombe Lane', 'Coombe Way', 'Coronation Road', 'Cossham Hospital', 'Cotham Hill (a)', 'Cotham Hill (b)', 'Cotham Hill (c)', 'Cotham Park', 'Cotham Side', 'Cotswold Road', 'Cranbrook Road', 'Crantock Avenue', 'Crofts End (a)', 'Crofts End (b)', 'Crofts End (c)', 'Cromwell Rd Arches (a)', 'Cromwell Rd Arches (b)', 'Cross Hands (a)', 'Cross Hands (b)', 'Cross Hands (c)', 'Crosscombe Drive', 'Crow Lane Lay-by', 'Croydon Street (a)', 'Croydon Street (b)', 'Croydon Street (c)', 'Cumberland Road', 'Dalby Avenue (a)', 'Dalby Avenue (b)', 'Dalkeith Avenue', 'Dancey Mead', 'Dangerfield Avenue', "David's Road", "Day's Road", 'De Clifford Road', 'Dean Lane', 'Dean Street', 'Denbigh Street', 'Denleigh Close', 'Devon Rd Bruce Rd', 'Devon Road', 'Doncaster Road', 'Donegal Road', 'Dorchester Road', 'Dorian Road', 'Dormer Road', 'Dorset Road', 'Dovercourt Road', 'Downend Road (a)', 'Downend Road (b)', 'Downend Road (c)', 'Downend Road (d)', 'Downfield Road', 'Downleaze', 'Downs Cote Avenue', 'Downs Road', 'Dowry Square', 'Druid Hill Top', 'Duncombe Lane', 'Dunford Road', 'Dunkerry Road', 'Dunster Road', 'Durdham Park', 'Durnford Street', 'Dursley Rd Terminus', 'Dursley Road', 'Eagle Road', 'East Dundry Road', 'East Park', 'East Street (c)', 'Eastbury Road', 'Eastcote Park', 'Eastgate Centre (a)', 'Eastgate Centre (b)', 'Eastgate Centre (c)', 'Eastgate Centre (d)', 'Eastgate Road', 'Eastlake Close', 'Easton Road', 'Eastville Park (a)', 'Eastville Park (b)', 'Eastville Park (c)', 'Eastville Park (d)', 'Eden Grove', 'Edgefield Road', 'Edward Street', 'Elberton Road', 'Elmcroft Crecsent', 'Elmcroft Crescent', 'Elmore Road', 'Elton Road', 'Embassy Road', 'Ermine Way', 'Ermleet Road', 'Ettricke Drive', 'Fair Furlong', 'Falcondale Road', 'Falcondale Road (a)', 'Falcondale Road (b)', 'Farr Street', 'Feeder Road', 'Fermaine Avenue', 'Filton Avenue (a)', 'Filton Avenue (b)', 'Filton Avenue (c)', 'Filton Avenue (d)', 'Filton Road', 'Filwood Broadway', 'First Avenue', 'Five Acre Drive', 'Flowers Hill', 'Forest Road', 'Fortfield Road', 'Fossedale Avenue', 'Frayne Road', 'Frenchay Park Road', 'Froomshaw Road', 'Fulford Road', 'Furber Road', 'Gainsborough Sq (a)', 'Gainsborough Sq (b)', 'Gainsborough Sq (c)', 'Gaol Ferry Bridge', 'Gasferry Road', 'Gatcombe Road', 'General Hospital', 'Gilbert Road', 'Gilda Parade', 'Gilda Square West', 'Glebe Road', 'Glen Park', 'Glenfrome Road', 'Goodneston Road', 'Gordon Road', 'Gosforth Road', 'Grange Court Road', 'Grantham Road', 'Grasmere Close', 'Grass Meers Drive', 'Greenfield Road', 'Greenleaze', 'Greenmore Road (a)', 'Greenmore Road (b)', 'Greenway Bush Lane', 'Greenwood Road', 'Greville Road', 'Greville Street', 'Greystoke Avenue', 'Grove Road', 'Guernsey Avenue', 'Guthrie Road', 'Hadrian Close', 'Haig Close', 'Hallen Road', 'Halsbury Road', 'Hamilton Road', 'Hampstead Road', 'Harcourt Avenue', 'Harcourt Hill', 'Hareclive Road', 'Harewood Road', 'Hartcliffe Col (a)', 'Hartcliffe Col (b)', 'Hartcliffe Col (c)', 'Hartcliffe Col (d)', 'Hatherley Road', 'Haydon Gardens', 'Hazelbury Road (a)', 'Hazelbury Road (b)', 'Headley Lane', 'Headley Park Avenue', 'Heath Road (a)', 'Heath Road (b)', 'Heathcote Road', 'Heathfield Crescent', 'Heber Street', 'Henbury Road', 'Hendre Road', 'Hengrove Depot', 'Hengrove Leisure Park', 'Hengrove Road', 'Henleaze Gardens', 'Henleaze Park Drive', 'Henleaze Road', 'Henley Grove', 'Hennessy Close', 'Hicks Gate', 'High Grove', 'Highbury Road', 'Highgrove Street', 'Highridge Green', 'Highridge Green (c)', 'Highridge Road', 'Hockeys Lane', 'Holbeach Way', 'Hollisters Drive', 'Hollway Road Shops', 'Hollybush Lane', 'Holmesdale Road', 'Hooper Road', 'Horfield Health Centre', 'Horfield Road', 'Horfield Sports Cen', 'Hotwell Road (a)', 'Hotwell Road (b)', 'Hotwell Road (c)', 'Hotwells', 'Howard Road', 'Hung Road', 'Hungerford Crescent', 'Hungerford Gardens', 'Hurston Road', 'Huyton Road', 'Ikea Car Park', 'Ilchester Cres (a)', 'Ilchester Cres (b)', 'Ilchester Cres (c)', 'Ilchester Cres (d)', 'Ilminster Avenue', 'Imperial Park', 'Ingmire Road', 'Inns Court Grn (a)', 'Inns Court Grn (b)', 'Int. Trading Estate', 'Ironmould Lane', 'Islington Road', "Jacob's Wells Road", 'Jarratts Road', 'Jean Road', 'Jersey Avenue', 'Jubilee Road', 'Kellaway Crescent', 'Kennington Avenue', 'Kensal Road', 'Kersteman Road', 'Kilburn Street', "King's Drive", 'Kingfisher Drive', 'Kings Head Lane (a)', 'Kings Head Lane (b)', 'Kings Head Lane (c)', 'Kings Weston Avenue', 'Kingsdown Parade', 'Kingsholm Road', 'Kingsland Road', 'Kingsley Road', 'Kingsway Newent Ave', 'Kingsway Shops', 'Knole Lane', 'Knowle Health Ctr', 'Lacey Road', 'Ladies Mile', 'Ladman Road', 'Lake Road', 'Lakemead Grove', 'Lakemead Grove Term', 'Lamb Street', 'Lampton Avenue', 'Landseer Avenue', 'Lanercost Road', 'Langford Road', 'Langley Crescent', 'Langton Court Road', 'Lawrence Hill Depot', 'Lawrence Hl Stn (a)', 'Lawrence Hl Stn (b)', 'Lawrence Hl Stn (c)', 'Lawrence Weston Rd', 'Ledbury Road', 'Leisure Centre', 'Lenover Gardens', 'Lewins Mead (he)', 'Lewins Mead (hm)', 'Lewis Road (a)', 'Lewis Road (b)', 'Littleton Road', 'Lockleaze Road', 'Lodge Causeway', 'Lodge Road', 'Lodgeside Avenue', 'Lodway Road', 'Long Ashton P&amp;R', 'Long Close', 'Long Cross Lay-by', 'Longacre Road', 'Longmead Avenue', 'Longreach Grove', 'Longway Avenue', 'Loxton Square', 'Luckwell Road', 'Lulsgate Road', 'Lydney Road', 'Lynton Road', 'Lyppiat Road', 'Lyppincourt Road', 'Mancroft Avenue', 'Manston Close', 'Mardyke Ferry Road', 'Mardyke Ferry Road (a)', 'Marguerite Road', 'Marissal Road', 'Maritime Museum', 'Market Square', 'Marlborough St (rm)', 'Marling Road', 'Marlwood Drive', 'Marsh Lane', 'Martock Road', 'Maskelyne Road', 'Mayfield Park', 'Maynard Road', 'Maywood Road', 'Mclaren Road', 'Mead Street', 'Meadow Grove', 'Meardon Road', 'Melton Crescent', 'Melvin Square (a)', 'Melvin Square (b)', 'Melvin Square (c)', 'Melvin Square (d)', 'Mendip Road', 'Mendip View Avenue', 'Merchants Road', 'Mill Lane', "Monk's Park Avenue", "Monk's Park Way", 'Monmouth Street', 'Montrose Park', 'Moor Grove', 'Morden Walk', 'Morley Street', 'Morris Road', 'Morrisons Fishponds', 'Muller Rd Depot (a)', 'Muller Rd Depot (b)', 'Muller Rd Depot (c)', 'Muller Road Top (a)', 'Muller Road Top (b)', 'Muller Road Top (c)', 'Muller Road Top (d)', 'Mulready Close', 'Musgrove Close', 'Myrtle Road', 'Napier Road', 'Narroways Road (a)', 'Narroways Road (b)', 'Narroways Road (c)', 'Nelson Street (hc)', 'Nelson Street (hd)', 'Netham Road', 'Nevil Road', 'New Charlotte Street (a)', 'New Charlotte Street (b)', 'New Fosseway Road', 'New Kingsley Rd', 'New Queen Street', 'New Station Road (a)', 'New Station Road (b)', 'Newland Drive', 'Newlyn Avenue', 'Newport Street', 'Nibley Rd Coaley Rd', 'Nibley Rd Hung Rd', 'Nine Tree Hill (a)', 'Nine Tree Hill (b)', 'Nine Tree Hill (c)', 'Nine Tree Hill (d)', 'North Street (rn)', 'Northcote Road', 'Northover Road', 'Northumbria Drive', 'Novers Lane', 'Nutgrove Avenue', 'Oatlands Avenue', 'Old Market Street', 'Old Sneed Road', 'Orchard Road', 'Orchard Square', 'Orpen Gardens', 'Orwell Street', 'Osborne Avenue', 'Overndale Road', 'Oxford Place', 'Oxford Street', 'Paintworks', 'Park Avenue (a)', 'Park Avenue (b)', 'Park Avenue (c)', 'Park Row (dh)', 'Park Row (di)', 'Park St Top (da)', 'Park St Top (db)', 'Park Street (pf)', 'Parnall Road', "Parry's Lane", 'Parson St Station', 'Parson St West St', 'Parson Street', 'Paultow Road', 'Pembroke Avenue', 'Pen Park Road', 'Penn Street A', 'Penn Street B', 'Penn Street C', 'Penpole Lane', 'Percival Road', 'Perrycroft Road', 'Phoenix Grove', 'Porlock Road', 'Portway Akeman Way', 'Portway Burnham Rd', 'Portway Grove Leaze', 'Portway P&amp;r Site', 'Portway Park Road', 'Portway Portview Rd', 'Portway Riverleaze', 'Portway Roman Way', 'Portway Station Rd', 'Portway Sylvan Way', 'Portway Woodwell Rd', 'Prewett Street', 'Priddy Drive', 'Prince Street (bp)', 'Prince Street (bq)', 'Priory Gardens', 'Priory Road (a)', 'Prospect Place', 'Pylle Hill Cres (a)', 'Pylle Hill Cres (b)', 'Pynne Road (a)', 'Pynne Road (b)', 'Quadrant West', 'Quantock Road', 'Quarry Way', 'Quay Street (cs)', 'Quay Street (ct)', "Queen's Avenue", "Queen's Drive", "Queen's Road", "Queen's Road (de)", "Queen's Road (df)", "Queen's Road (dg)", 'Raleigh Road', 'Raven Hill', 'Rayleigh Road', 'Raymend Road', 'Red House Lane', "Red Maid's School", 'Redcliff Hill (to)', 'Redcliff Hill (tp)', 'Redcliff Hill (tq)', 'Redcliff Hill (tr)', 'Redcliff Hill (ts)', 'Redcliffe Way (tn)', 'Redcliffe Way (tt)', 'Redland Court Road', 'Redland Park', 'Redland Station (a)', 'Redland Station (b)', 'Redland Station (c)', 'Reedley Road', 'Repton Road', 'Richmond Street', 'Ripon Road', 'Risdale Road', 'River View', 'Robertson Road', 'Robertson Road (a)', 'Rockleaze Road', 'Rodbourne Road', 'Rodney Road', 'Rookery Way', 'Rose Walk', 'Royate Hill', 'Rupert Street (ca)', 'Rupert Street (cb)', 'Rupert Street (ha)', 'Rupert Street (hb)', 'Rupert Street (hf)', 'Rupert Street (hg)', 'Russell Town Avenue', 'Ryde Road (a)', 'Rylestone Grove', 'Salcombe Green', 'Salisbury Avenue', 'Salisbury Road', 'Sandburrows Road', 'Sandholme Road (a)', 'Sandholme Road (b)', 'Sandholme Road (c)', 'Sandholme Road (d)', 'Sandyleaze', 'Saville Road', 'Sea Mills Lane', 'Sea Mills Square (a)', 'Sea Mills Square (b)', 'Sea Mills Square (c)', 'Sea Walls', 'Sefton Park Road', 'Selbrooke Crescent', 'Seneca Street', 'Severnside Trad Est', 'Sevier Street', 'Shaldon Road', 'Sheldrake Drive', 'Sherrin Way', 'Sherrin Wy Terminus', 'Sherwell Road', 'Ship Lane', 'Shirehampton Gr (a)', 'Shirehampton Gr (b)', 'Shirehampton Gr (c)', 'Shirehampton Park', 'Showering Road', 'Shuter Road', 'Sion Road', "Sir John's Lane", 'Skills Academy', 'Small Lane', 'Smeaton Road', 'Smoke Lane', 'Smoke Lane Ind. Est', 'Smyth Road', 'Snowdon Road', 'Somerfield H.q.', 'Somerset Square', 'Somerset Street', 'Somerset Terrace', 'Sommerville Rd (a)', 'Sommerville Rd (c)', 'Soundwell Road', 'Southfield Road', 'Southmead Hosp (a)', 'Southmead Hosp (b)', 'Southmead Hospital (c)', 'Southmead Hospital (d)', 'Southside Close', 'Southville Place', 'Southwood Ave (a)', 'Southwood Ave (b)', 'Southwood Ave (c)', 'Southwood Ave (d)', 'Southwood Drive', "Sports Cen W'church", 'Spring Street', 'Springfield Grove', "St Andrew's Rd Stn", "St Andrew's Road", 'St Barnabas Close', "St Bede's Road", 'St Brelades Grove', "St Brendan's Coll", "St Dunstan's Road", 'St Josephs Road', "St Mary's Road", "St Mary's Walk", "St Oswald's Road", "St Peter's Hospice", 'St Phillips Road', "St Ursula's Hgh Sch", 'St. Peters Rise', 'Stafford Road', 'Stanbury Avenue', 'Standon Way', 'Stapleton Church', 'Stapleton Road (a)', 'Stapleton Road (b)', 'Stapleton Road Stn', 'Stevens Crescent', 'Sth Liberty La (a)', 'Stillingfleet Road', 'Stockwood Crescent', 'Stockwood Lane', 'Stockwood Library', 'Stockwood Road', 'Stoke Hill', 'Stoke Lane', 'Stoke Lane Shops', 'Stokes Croft (ro)', 'Stokes Croft (rp)', 'Stothard Road', 'Straits Pde (a)', 'Straits Pde (b)', 'Stroud Road', 'Students Union', 'Sturminster Close', 'Sturminster Road (a)', 'Sturminster Road (b)', 'Sturminster Road (c)', 'Sunderland Place', 'Sunny Hill', 'Sunnydene', 'Swainswick', 'Swane Road', 'Swiss Drive', 'Sylvan Way', 'Symes Avenue', 'Tanorth Road', 'Teignmouth Road', 'Temple Meads (ta)', 'Temple Meads (tb)', 'Temple Meads (te)', 'Temple Meads (tf)', 'Temple Meads (tg)', 'Temple Meads (tj)', 'Temple Meads (tk)', 'Temple Way (of)', 'Temple Way (og)', 'Temple Way (oh)', 'Temple Way (oi)', 'Temple Way (th)', 'Temple Way (tl)', 'Terrell Gardens', 'Tesco Brislington', 'Tesco Car Park', 'Thatchers Close', 'The Avenue', 'The Bean Acre', 'The Boulevard', 'The Centre (cc)', 'The Centre (cd)', 'The Centre (ce)', 'The Centre (cf)', 'The Centre (cg)', 'The Centre (ch)', 'The Centre (ci)', 'The Centre (cj)', 'The Centre (ck)', 'The Centre (cl)', 'The Centre (cm)', 'The Centre (cn)', 'The Centre (co)', 'The Centre (cp)', 'The Centre (cq)', 'The Centre (cr)', 'The Centre (cu)', 'The Centre (cv)', 'The Chine', 'The Coots', 'The Dingle', 'The Grove (bm)', 'The Haymarket (re)', 'The Haymarket (rf)', 'The Haymarket (rg)', 'The Haymarket (rh)', 'The Haymarket (ri)', 'The Haymarket (rj)', 'The Haymarket (rs)', 'The Horsefair (sk)', 'The Horsefair (sl)', 'The Horsefair (sm)', 'The Horsefair (sn)', 'The Horsefair (so)', 'The Horsefair (sp)', 'The Malago', 'The Pentagon', 'The Ridgeway', 'The Rock', 'The Salutation (a)', 'The Salutation (b)', 'The Salutation (c)', 'Thicket Avenue', 'Thicket Road', 'Third Way', 'Thrissell Street', 'Thurlestone', 'Tilling Road', 'Timberscombe Walk', 'Tormarton Crescent', 'Toronto Road', 'Torpoint Road', 'Totterdown Bridge', 'Tramway Road', 'Trendlewood Park', 'Triangle West (dc)', 'Triangle West (dd)', 'Troopers Hill Road', 'Tufton Avenue', 'Turnbridge Road', 'Turtlegate Avenue', 'Turville Drive', 'Two Mile Court', "Tyndall's Park Road", 'Union Street (sf)', 'Union Street (sg)', 'Union Street (sh)', 'Union Street (si)', 'Union Street (sj)', 'Upper Belgrave Road', 'Upper Cranbrook Road', 'Utd Reform Church', 'Vale Lane', 'Vassal Road', 'Ventnor Road', 'Victoria Rooms', 'Victoria Square', 'Victoria St (bf)', 'Victoria St (bg)', 'Victoria St (bh)', 'Victoria St (tu)', 'Victoria St (tv)', 'Villiers Road', 'Vivian St Orwell St', 'Warwick Road', 'Waterdale Gardens', 'Watling Way', 'Wedmore Vale', 'Wellington Hill', 'Wesley Street', 'Wessex Avenue', 'West Street', 'West Town Lane', 'West Town Park', 'Westbury High St (a)', 'Westbury Lane', 'Westbury Road (a)', 'Westbury Road (b)', 'Westbury Road (c)', 'Westbury Road (d)', 'Westbury Vil (a)', 'Westbury Vil (b)', 'Westbury Vil (c)', 'Westbury Vil (d)', 'Westbury Vil (e)', 'Westbury Vil (f)', 'Westover Road', 'Weymouth Road', 'Wharnecliffe Gdns', 'Whitecross Avenue', 'Whitefield Avenue', 'Whiteleaze', 'Whiteway Road', 'Whitewood Road', 'Whitland Avenue', 'Whitmore Avenue', 'Wick Crescent', 'Wick Road', 'William Street', 'Willinton Road', 'Wills Hall', 'Wills Way', 'Wilton Close', 'Winchester Road', 'Windmill Hill', 'Windmill Lane', 'Windsor Terrace', 'Wine Street (sc)', 'Wine Street (se)', 'Winford Grove', 'Winterstoke Road', 'Woburn Road', 'Woodland Avenue', 'Woodland Way', 'Woodleaze', 'Wootton Crescent', 'Wootton Park', 'Worcester Close', 'Wot Baptist Church', 'Wren Drive', 'Wrington Crescent', 'Wyndham Crescent', 'York Road', 'Zetland Rd Jctn (b)', 'Zetland Rd Jtn (a)', 'Zetland Rd Jtn (c)', 'Zetland Rd Jtn (d)']</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>336</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Shelter</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Pole</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>7014</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>8</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['19', '2', '336', 'Bus Station', 'Lamp Post', 'No', 'Pole', 'Shelter']</t>
         </is>
@@ -788,18 +825,22 @@
       <c r="P6" t="n">
         <v>1163</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>1011</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>4</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['1160', 'N/A', 'No', 'Yes']</t>
         </is>
@@ -858,18 +899,26 @@
       <c r="P7" t="n">
         <v>213</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>3160</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>4</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['211', 'No', 'Yes', 'yes']</t>
         </is>

--- a/examples/UK OGD/bristol bus stops/profile.xlsx
+++ b/examples/UK OGD/bristol bus stops/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -479,10 +489,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E2" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -515,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -527,14 +537,20 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>18904</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>['0100BAC30684', '0100BAC30685', '0100BAC30742', '0100BAC30743', '0100BAC30946', '0100BAZ02458', '0100BAZ02459', '0100BRA01797', '0100BRA01798', '0100BRA01799', '0100BRA01800', '0100BRA10006', '0100BRA10007', '0100BRA10008', '0100BRA10009', '0100BRA10010', '0100BRA10011', '0100BRA10012', '0100BRA10013', '0100BRA10014', '0100BRA10015', '0100BRA10016', '0100BRA10021', '0100BRA10022', '0100BRA10023', '0100BRA10024', '0100BRA10025', '0100BRA10026', '0100BRA10027', '0100BRA10029', '0100BRA10030', '0100BRA10031', '0100BRA10032', '0100BRA10033', '0100BRA10034', '0100BRA10035', '0100BRA10036', '0100BRA10037', '0100BRA10038', '0100BRA10039', '0100BRA10040', '0100BRA10041', '0100BRA10042', '0100BRA10047', '0100BRA10048', '0100BRA10049', '0100BRA10050', '0100BRA10051', '0100BRA10052', '0100BRA10053', '0100BRA10054', '0100BRA10055', '0100BRA10056', '0100BRA10057', '0100BRA10059', '0100BRA10062', '0100BRA10064', '0100BRA10065', '0100BRA10066', '0100BRA10067', '0100BRA10068', '0100BRA10069', '0100BRA10070', '0100BRA10071', '0100BRA10072', '0100BRA10073', '0100BRA10074', '0100BRA10075', '0100BRA10076', '0100BRA10077', '0100BRA10078', '0100BRA10079', '0100BRA10080', '0100BRA10081', '0100BRA10082', '0100BRA10083', '0100BRA10084', '0100BRA10086', '0100BRA10087', '0100BRA10088', '0100BRA10089', '0100BRA10090', '0100BRA10091', '0100BRA10092', '0100BRA10093', '0100BRA10094', '0100BRA10095', '0100BRA10096', '0100BRA10097', '0100BRA10098', '0100BRA10099', '0100BRA10100', '0100BRA10101', '0100BRA10102', '0100BRA10103', '0100BRA10104', '0100BRA10105', '0100BRA10106', '0100BRA10107', '0100BRA10108', '0100BRA10109', '0100BRA10110', '0100BRA10111', '0100BRA10112', '0100BRA10113', '0100BRA10114', '0100BRA10115', '0100BRA10116', '0100BRA10117', '0100BRA10119', '0100BRA10120', '0100BRA10121', '0100BRA10122', '0100BRA10123', '0100BRA10124', '0100BRA10125', '0100BRA10126', '0100BRA10127', '0100BRA10128', '0100BRA10129', '0100BRA10130', '0100BRA10131', '0100BRA10132', '0100BRA10133', '0100BRA10134', '0100BRA10135', '0100BRA10136', '0100BRA10137', '0100BRA10138', '0100BRA10139', '0100BRA10140', '0100BRA10143', '0100BRA10144', '0100BRA10145', '0100BRA10146', '0100BRA10147', '0100BRA10148', '0100BRA10149', '0100BRA10150', '0100BRA10151', '0100BRA10152', '0100BRA10153', '0100BRA10154', '0100BRA10155', '0100BRA10156', '0100BRA10157', '0100BRA10158', '0100BRA10159', '0100BRA10160', '0100BRA10161', '0100BRA10162', '0100BRA10163', '0100BRA10164', '0100BRA10165', '0100BRA10166', '0100BRA10167', '0100BRA10168', '0100BRA10169', '0100BRA10170', '0100BRA10171', '0100BRA10172', '0100BRA10173', '0100BRA10174', '0100BRA10175', '0100BRA10176', '0100BRA10177', '0100BRA10178', '0100BRA10179', '0100BRA10180', '0100BRA10181', '0100BRA10182', '0100BRA10183', '0100BRA10184', '0100BRA10187', '0100BRA10188', '0100BRA10189', '0100BRA10190', '0100BRA10191', '0100BRA10192', '0100BRA10193', '0100BRA10195', '0100BRA10196', '0100BRA10197', '0100BRA10198', '0100BRA10199', '0100BRA10200', '0100BRA10201', '0100BRA10202', '0100BRA10203', '0100BRA10204', '0100BRA10205', '0100BRA10206', '0100BRA10207', '0100BRA10208', '0100BRA10209', '0100BRA10210', '0100BRA10211', '0100BRA10212', '0100BRA10213', '0100BRA10214', '0100BRA10215', '0100BRA10216', '0100BRA10217', '0100BRA10218', '0100BRA10219', '0100BRA10220', '0100BRA10221', '0100BRA10225', '0100BRA10229', '0100BRA10230', '0100BRA10231', '0100BRA10233', '0100BRA10235', '0100BRA10236', '0100BRA10237', '0100BRA10238', '0100BRA10239', '0100BRA10240', '0100BRA10241', '0100BRA10242', '0100BRA10243', '0100BRA10244', '0100BRA10245', '0100BRA10246', '0100BRA10247', '0100BRA10248', '0100BRA10249', '0100BRA10250', '0100BRA10251', '0100BRA10252', '0100BRA10253', '0100BRA10254', '0100BRA10255', '0100BRA10256', '0100BRA10257', '0100BRA10258', '0100BRA10259', '0100BRA10260', '0100BRA10261', '0100BRA10262', '0100BRA10263', '0100BRA10264', '0100BRA10265', '0100BRA10266', '0100BRA10267', '0100BRA10269', '0100BRA10270', '0100BRA10272', '0100BRA10273', '0100BRA10274', '0100BRA10275', '0100BRA10276', '0100BRA10277', '0100BRA10278', '0100BRA10279', '0100BRA10280', '0100BRA10281', '0100BRA10282', '0100BRA10283', '0100BRA10284', '0100BRA10285', '0100BRA10286', '0100BRA10287', '0100BRA10288', '0100BRA10289', '0100BRA10290', '0100BRA10291', '0100BRA10292', '0100BRA10293', '0100BRA10294', '0100BRA10295', '0100BRA10296', '0100BRA10297', '0100BRA10298', '0100BRA10299', '0100BRA10300', '0100BRA10301', '0100BRA10302', '0100BRA10303', '0100BRA10304', '0100BRA10305', '0100BRA10306', '0100BRA10308', '0100BRA10309', '0100BRA10311', '0100BRA10312', '0100BRA10313', '0100BRA10315', '0100BRA10316', '0100BRA10317', '0100BRA10318', '0100BRA10319', '0100BRA10320', '0100BRA10321', '0100BRA10323', '0100BRA10324', '0100BRA10325', '0100BRA10326', '0100BRA10327', '0100BRA10328', '0100BRA10329', '0100BRA10330', '0100BRA10331', '0100BRA10332', '0100BRA10333', '0100BRA10334', '0100BRA10335', '0100BRA10336', '0100BRA10337', '0100BRA10339', '0100BRA10340', '0100BRA10342', '0100BRA10343', '0100BRA10344', '0100BRA10352', '0100BRA10353', '0100BRA10354', '0100BRA10355', '0100BRA10356', '0100BRA10357', '0100BRA10358', '0100BRA10359', '0100BRA10360', '0100BRA10361', '0100BRA10362', '0100BRA10363', '0100BRA10364', '0100BRA10365', '0100BRA10366', '0100BRA10367', '0100BRA10368', '0100BRA10369', '0100BRA10370', '0100BRA10371', '0100BRA10372', '0100BRA10373', '0100BRA10374', '0100BRA10375', '0100BRA10376', '0100BRA10377', '0100BRA10378', '0100BRA10381', '0100BRA10382', '0100BRA10383', '0100BRA10384', '0100BRA10385', '0100BRA10386', '0100BRA10392', '0100BRA10393', '0100BRA10394', '0100BRA10395', '0100BRA10396', '0100BRA10397', '0100BRA10398', '0100BRA10399', '0100BRA10400', '0100BRA10401', '0100BRA10403', '0100BRA10404', '0100BRA10405', '0100BRA10406', '0100BRA10407', '0100BRA10408', '0100BRA10409', '0100BRA10410', '0100BRA10411', '0100BRA10412', '0100BRA10413', '0100BRA10414', '0100BRA10415', '0100BRA10417', '0100BRA10418', '0100BRA10419', '0100BRA10421', '0100BRA10423', '0100BRA10425', '0100BRA10426', '0100BRA10427', '0100BRA10428', '0100BRA10429', '0100BRA10430', '0100BRA10431', '0100BRA10432', '0100BRA10433', '0100BRA10434', '0100BRA10435', '0100BRA10436', '0100BRA10437', '0100BRA10438', '0100BRA10439', '0100BRA10440', '0100BRA10441', '0100BRA10442', '0100BRA10443', '0100BRA10444', '0100BRA10445', '0100BRA10446', '0100BRA10447', '0100BRA10448', '0100BRA10449', '0100BRA10450', '0100BRA10451', '0100BRA10452', '0100BRA10453', '0100BRA10454', '0100BRA10455', '0100BRA10456', '0100BRA10457', '0100BRA10458', '0100BRA10459', '0100BRA10460', '0100BRA10461', '0100BRA10464', '0100BRA10465', '0100BRA10466', '0100BRA10467', '0100BRA10468', '0100BRA10469', '0100BRA10470', '0100BRA10471', '0100BRA10472', '0100BRA10473', '0100BRA10474', '0100BRA10475', '0100BRA10476', '0100BRA10477', '0100BRA10478', '0100BRA10479', '0100BRA10480', '0100BRA10481', '0100BRA10482', '0100BRA10483', '0100BRA10484', '0100BRA10485', '0100BRA10486', '0100BRA10487', '0100BRA10488', '0100BRA10489', '0100BRA10490', '0100BRA10491', '0100BRA10492', '0100BRA10493', '0100BRA10494', '0100BRA10495', '0100BRA10496', '0100BRA10497', '0100BRA10498', '0100BRA10499', '0100BRA10500', '0100BRA10501', '0100BRA10502', '0100BRA10503', '0100BRA10504', '0100BRA10505', '0100BRA10506', '0100BRA10507', '0100BRA10508', '0100BRA10509', '0100BRA10510', '0100BRA10511', '0100BRA10512', '0100BRA10513', '0100BRA10514', '0100BRA10515', '0100BRA10516', '0100BRA10521', '0100BRA10522', '0100BRA10523', '0100BRA10524', '0100BRA10525', '0100BRA10527', '0100BRA10528', '0100BRA10529', '0100BRA10530', '0100BRA10531', '0100BRA10532', '0100BRA10533', '0100BRA10534', '0100BRA10535', '0100BRA10536', '0100BRA10537', '0100BRA10538', '0100BRA10539', '0100BRA10540', '0100BRA10543', '0100BRA10544', '0100BRA10545', '0100BRA10546', '0100BRA10547', '0100BRA10548', '0100BRA10549', '0100BRA10550', '0100BRA10551', '0100BRA10553', '0100BRA10554', '0100BRA10555', '0100BRA10556', '0100BRA10557', '0100BRA10558', '0100BRA10559', '0100BRA10560', '0100BRA10561', '0100BRA10562', '0100BRA10563', '0100BRA10564', '0100BRA10565', '0100BRA10566', '0100BRA10567', '0100BRA10570', '0100BRA10571', '0100BRA10572', '0100BRA10574', '0100BRA10575', '0100BRA10576', '0100BRA10577', '0100BRA10578', '0100BRA10579', '0100BRA10580', '0100BRA10583', '0100BRA10584', '0100BRA10585', '0100BRA10586', '0100BRA10587', '0100BRA10588', '0100BRA10589', '0100BRA10590', '0100BRA10591', '0100BRA10592', '0100BRA10593', '0100BRA10594', '0100BRA10595', '0100BRA10596', '0100BRA10598', '0100BRA10599', '0100BRA10600', '0100BRA10601', '0100BRA10602', '0100BRA10603', '0100BRA10604', '0100BRA10605', '0100BRA10606', '0100BRA10607', '0100BRA10608', '0100BRA10609', '0100BRA10614', '0100BRA10616', '0100BRA10617', '0100BRA10618', '0100BRA10619', '0100BRA10620', '0100BRA10621', '0100BRA10622', '0100BRA10623', '0100BRA10624', '0100BRA10625', '0100BRA10626', '0100BRA10627', '0100BRA10628', '0100BRA10629', '0100BRA10630', '0100BRA10631', '0100BRA10632', '0100BRA10633', '0100BRA10634', '0100BRA10635', '0100BRA10636', '0100BRA10637', '0100BRA10638', '0100BRA10639', '0100BRA10640', '0100BRA10641', '0100BRA10642', '0100BRA10643', '0100BRA10644', '0100BRA10645', '0100BRA10647', '0100BRA10648', '0100BRA10649', '0100BRA10650', '0100BRA10651', '0100BRA10652', '0100BRA10653', '0100BRA10654', '0100BRA10655', '0100BRA10656', '0100BRA10657', '0100BRA10658', '0100BRA10659', '0100BRA10660', '0100BRA10661', '0100BRA10662', '0100BRA10663', '0100BRA10665', '0100BRA10666', '0100BRA10667', '0100BRA10668', '0100BRA10669', '0100BRA10673', '0100BRA10674', '0100BRA10675', '0100BRA10676', '0100BRA10677', '0100BRA10678', '0100BRA10679', '0100BRA10680', '0100BRA10681', '0100BRA10682', '0100BRA10683', '0100BRA10684', '0100BRA10685', '0100BRA10686', '0100BRA10687', '0100BRA10691', '0100BRA10692', '0100BRA10693', '0100BRA10696', '0100BRA10697', '0100BRA10698', '0100BRA10699', '0100BRA10700', '0100BRA10701', '0100BRA10702', '0100BRA10703', '0100BRA10704', '0100BRA10706', '0100BRA10707', '0100BRA10708', '0100BRA10709', '0100BRA10710', '0100BRA10711', '0100BRA10712', '0100BRA10713', '0100BRA10714', '0100BRA10715', '0100BRA10716', '0100BRA10717', '0100BRA10718', '0100BRA10719', '0100BRA10720', '0100BRA10721', '0100BRA10722', '0100BRA10723', '0100BRA10724', '0100BRA10725', '0100BRA10728', '0100BRA10729', '0100BRA10730', '0100BRA10731', '0100BRA10732', '0100BRA10733', '0100BRA10734', '0100BRA10735', '0100BRA10736', '0100BRA10737', '0100BRA10738', '0100BRA10739', '0100BRA10740', '0100BRA10741', '0100BRA10743', '0100BRA10744', '0100BRA10745', '0100BRA10746', '0100BRA10747', '0100BRA10748', '0100BRA10749', '0100BRA10751', '0100BRA10752', '0100BRA10753', '0100BRA10754', '0100BRA10755', '0100BRA10756', '0100BRA10757', '0100BRA10758', '0100BRA10759', '0100BRA10760', '0100BRA10761', '0100BRA10762', '0100BRA10763', '0100BRA10764', '0100BRA10765', '0100BRA10766', '0100BRA10767', '0100BRA10768', '0100BRA10769', '0100BRA10771', '0100BRA10772', '0100BRA10773', '0100BRA10774', '0100BRA10775', '0100BRA10776', '0100BRA10777', '0100BRA10780', '0100BRA10781', '0100BRA10782', '0100BRA10783', '0100BRA10784', '0100BRA10785', '0100BRA10786', '0100BRA10787', '0100BRA10788', '0100BRA10789', '0100BRA10790', '0100BRA10791', '0100BRA10792', '0100BRA10793', '0100BRA10794', '0100BRA10795', '0100BRA10796', '0100BRA10797', '0100BRA10798', '0100BRA10799', '0100BRA10800', '0100BRA10801', '0100BRA10802', '0100BRA10807', '0100BRA10808', '0100BRA10809', '0100BRA10810', '0100BRA10811', '0100BRA10812', '0100BRA10813', '0100BRA10814', '0100BRA10815', '0100BRA10816', '0100BRA10817', '0100BRA10818', '0100BRA10819', '0100BRA10820', '0100BRA10821', '0100BRA10822', '0100BRA10823', '0100BRA10831', '0100BRA10832', '0100BRA10833', '0100BRA10834', '0100BRA10835', '0100BRA10836', '0100BRA10837', '0100BRA10838', '0100BRA10839', '0100BRA10840', '0100BRA10841', '0100BRA10842', '0100BRA10843', '0100BRA10844', '0100BRA10845', '0100BRA10846', '0100BRA10847', '0100BRA10848', '0100BRA10849', '0100BRA10850', '0100BRA10851', '0100BRA10852', '0100BRA10853', '0100BRA10854', '0100BRA10855', '0100BRA10856', '0100BRA10857', '0100BRA10858', '0100BRA10859', '0100BRA10860', '0100BRA10861', '0100BRA10862', '0100BRA10863', '0100BRA10864', '0100BRA10865', '0100BRA10866', '0100BRA10867', '0100BRA10868', '0100BRA10869', '0100BRA10870', '0100BRA10871', '0100BRA10872', '0100BRA10873', '0100BRA10874', '0100BRA10878', '0100BRA10879', '0100BRA10880', '0100BRA10881', '0100BRA10882', '0100BRA10883', '0100BRA10884', '0100BRA10885', '0100BRA10888', '0100BRA10889', '0100BRA10890', '0100BRA10891', '0100BRA10892', '0100BRA10893', '0100BRA10894', '0100BRA10895', '0100BRA10896', '0100BRA10897', '0100BRA10898', '0100BRA10903', '0100BRA10904', '0100BRA10905', '0100BRA10906', '0100BRA10907', '0100BRA10908', '0100BRA10909', '0100BRA10910', '0100BRA10911', '0100BRA10915', '0100BRA10916', '0100BRA10917', '0100BRA10918', '0100BRA10919', '0100BRA10922', '0100BRA10923', '0100BRA10924', '0100BRA10925', '0100BRA10926', '0100BRA10927', '0100BRA10928', '0100BRA10929', '0100BRA10930', '0100BRA10931', '0100BRA10932', '0100BRA10933', '0100BRA10934', '0100BRA10935', '0100BRA10937', '0100BRA10941', '0100BRA10942', '0100BRA10943', '0100BRA10945', '0100BRA10946', '0100BRA16901', '0100BRA16902', '0100BRA16903', '0100BRA16904', '0100BRA16905', '0100BRA16906', '0100BRA16907', '0100BRA16908', '0100BRA16910', '0100BRA16911', '0100BRA16924', '0100BRA16925', '0100BRA16928', '0100BRA16931', '0100BRA16933', '0100BRA16934', '0100BRA16936', '0100BRA16938', '0100BRA16939', '0100BRA16940', '0100BRA16942', '0100BRA16943', '0100BRA16944', '0100BRA16946', '0100BRA16947', '0100BRA46637', '0100BRA46638', '0100BRA46639', '0100BRA46640', '0100BRA46641', '0100BRA46642', '0100BRA46643', '0100BRA46644', '0100BRA46645', '0100BRA46646', '0100BRA46647', '0100BRA46648', '0100BRA46649', '0100BRA46650', '0100BRA46651', '0100BRA46653', '0100BRA46654', '0100BRA46655', '0100BRA46656', '0100BRA46657', '0100BRA46658', '0100BRA56546', '0100BRA56547', '0100BRA56548', '0100BRA56549', '0100BRA56550', '0100BRA56551', '0100BRA56552', '0100BRA56553', '0100BRA56554', '0100BRA56555', '0100BRA56556', '0100BRA56557', '0100BRA56560', '0100BRA56561', '0100BRA56563', '0100BRA56564', '0100BRA56565', '0100BRA56566', '0100BRA56567', '0100BRA56568', '0100BRA56569', '0100BRA56570', '0100BRA56572', '0100BRA56573', '0100BRA56574', '0100BRA56575', '0100BRA56576', '0100BRA56577', '0100BRA56578', '0100BRA56579', '0100BRA56580', '0100BRA56581', '0100BRC53349', '0100BRC53350', '0100BRC53351', '0100BRC53355', '0100BRC53356', '0100BRC53357', '0100BRC53358', '0100BRC53359', '0100BRC53363', '0100BRC53364', '0100BRC53365', '0100BRC53367', '0100BRC53368', '0100BRC53372', '0100BRC53374', '0100BRC53375', '0100BRC53378', '0100BRC53380', '0100BRC53381', '0100BRC53382', '0100BRC53383', '0100BRC53384', '0100BRC53385', '0100BRC53386', '0100BRC53387', '0100BRC53388', '0100BRC53390', '0100BRC53391', '0100BRC53393', '0100BRC53394', '0100BRC53395', '0100BRC53396', '0100BRC53397', '0100BRC53398', '0100BRC53399', '0100BRC53400', '0100BRC53403', '0100BRC53404', '0100BRC53405', '0100BRC53406', '0100BRC53407', '0100BRC53408', '0100BRP90003', '0100BRP90004', '0100BRP90008', '0100BRP90009', '0100BRP90010', '0100BRP90011', '0100BRP90012', '0100BRP90013', '0100BRP90015', '0100BRP90017', '0100BRP90018', '0100BRP90019', '0100BRP90021', '0100BRP90023', '0100BRP90025', '0100BRP90026', '0100BRP90027', '0100BRP90028', '0100BRP90029', '0100BRP90030', '0100BRP90031', '0100BRP90032', '0100BRP90033', '0100BRP90034', '0100BRP90035', '0100BRP90036', '0100BRP90037', '0100BRP90038', '0100BRP90039', '0100BRP90040', '0100BRP90056', '0100BRP90057', '0100BRP90058', '0100BRP90059', '0100BRP90060', '0100BRP90061', '0100BRP90063', '0100BRP90064', '0100BRP90065', '0100BRP90066', '0100BRP90067', '0100BRP90068', '0100BRP90069', '0100BRP90070', '0100BRP90071', '0100BRP90074', '0100BRP90075', '0100BRP90076', '0100BRP90077', '0100BRP90078', '0100BRP90079', '0100BRP90080', '0100BRP90081', '0100BRP90082', '0100BRP90083', '0100BRP90084', '0100BRP90085', '0100BRP90086', '0100BRP90087', '0100BRP90088', '0100BRP90089', '0100BRP90090', '0100BRP90091', '0100BRP90092', '0100BRP90093', '0100BRP90094', '0100BRP90095', '0100BRP90096', '0100BRP90097', '0100BRP90098', '0100BRP90100', '0100BRP90101', '0100BRP90102', '0100BRP90103', '0100BRP90104', '0100BRP90105', '0100BRP90106', '0100BRP90107', '0100BRP90108', '0100BRP90109', '0100BRP90110', '0100BRP90111', '0100BRP90112', '0100BRP90114', '0100BRP90116', '0100BRP90117', '0100BRP90118', '0100BRP90119', '0100BRP90120', '0100BRP90121', '0100BRP90122', '0100BRP90123', '0100BRP90124', '0100BRP90125', '0100BRP90127', '0100BRP90128', '0100BRP90129', '0100BRP90130', '0100BRP90131', '0100BRP90132', '0100BRP90133', '0100BRP90134', '0100BRP90135', '0100BRP90136', '0100BRP90137', '0100BRP90138', '0100BRP90140', '0100BRP90141', '0100BRP90142', '0100BRP90143', '0100BRP90145', '0100BRP90146', '0100BRP90149', '0100BRP90150', '0100BRP90151', '0100BRP90153', '0100BRP90154', '0100BRP90155', '0100BRP90156', '0100BRP90157', '0100BRP90158', '0100BRP90163', '0100BRP90165', '0100BRP90166', '0100BRP90167', '0100BRP90168', '0100BRP90169', '0100BRP90170', '0100BRP90171', '0100BRP90173', '0100BRP90174', '0100BRP90175', '0100BRP90176', '0100BRP90177', '0100BRP90178', '0100BRP90179', '0100BRP90180', '0100BRP90181', '0100BRP90183', '0100BRP90184', '0100BRP90185', '0100BRP90186', '0100BRP90187', '0100BRP90188', '0100BRP90189', '0100BRP90190', '0100BRP90191', '0100BRP90192', '0100BRP90195', '0100BRP90196', '0100BRP90197', '0100BRP90199', '0100BRP90200', '0100BRP90201', '0100BRP90202', '0100BRP90203', '0100BRP90204', '0100BRP90205', '0100BRP90206', '0100BRP90207', '0100BRP90208', '0100BRP90210', '0100BRP90211', '0100BRP90212', '0100BRP90213', '0100BRP90214', '0100BRP90215', '0100BRP90216', '0100BRP90217', '0100BRP90218', '0100BRP90219', '0100BRP90221', '0100BRP90224', '0100BRP90225', '0100BRP90226', '0100BRP90227', '0100BRP90228', '0100BRP90231', '0100BRP90232', '0100BRP90233', '0100BRP90234', '0100BRP90235', '0100BRP90236', '0100BRP90237', '0100BRP90268', '0100BRP90269', '0100BRP90270', '0100BRP90271', '0100BRP90272', '0100BRP90273', '0100BRP90307', '0100BRP90308', '0100BRP90309', '0100BRP90310', '0100BRP90311', '0100BRP90312', '0100BRP90313', '0100BRP90317', '0100BRP90318', '0100BRP90319', '0100BRP90320', '0100BRP90324', '0100BRP90325', '0100BRP90326', '0100BRP90327', '0100BRP90328', '0100BRP90329', '0100BRP90330', '0100BRP90332', '0100BRP90333', '0100BRP90335', '0100BRP90336', '0100BRP90337', '0100BRP90338', '0100BRP90339', '0100BRP90340', '0100BRP90341', '0100BRP90342', '0100BRP90343', '0100BRP90344', '0100BRP90345', '0100BRP90346', '0100BRP90347', '0100BRP90348', '0100BRP90349', '0100BRP90350', '0100BRP90354', '0100BRP90355', '0100BRP90356', '0100BRP90357', '0100BRP90363', '0100BRP90364', '0100BRP90365', '0100BRP90366', '0100BRP90368', '0100BRP90369', '0100BRP90371', '0100BRP90372', '0100BRP90373', '0100BRP90377', '0100BRP90378', '0100BRP90379', '0100BRP90380', '0100BRP90381', '0100BRP90382', '0100BRP90383', '0100BRP90384', '0100BRP90385', '0100BRP90386', '0100BRP90387', '0100BRP90388', '0100BRP90396', '0100BRP90399', '0100BRP90402', '0100BRP90404', '0100BRP90405', '0100BRP90408', '0100BRP90409', '0100BRP90671', '0100BRP90673', '0100BRP90674', '0100BRP90675', '0100BRP90676', '0100BRP90677', '0100BRP90678', '0100BRP90979', '0100BRP90981', '0100BRP90982', '0100BRP90983', '0100BRP90984', '0100BRP90986', '0100BRP90987', '0100BRP90988', '0100BRP90989', '0100BRP90990', '0100BRP90991', '0100BRP90996', '0100BRP90997', '0100BRP90998', '0100BRP90999', '0100BRP91001', '0100BRP91002', '0100BRP91003', '0100BRP91004', '0100BRP91005', '0100BRP91006', '0100BRP91008', '0100BRP91011', '0100BRP91012', '0100BRP91013', '0100BRP91014', '0100BRP91015', '0100BRP91016', '0100BRP91017', '0100BRP91018', '0100BRP91019', '0100BRP91020', '0100BRP91021', '0100BRP91022', '0100BRP91023', '0100BRP91024', '0100BRP91027', '0100BRP91028', '0100BRP91029', '0100BRP91030', '0100BRP91031', '0100BRP91032', '0100BRP91033', '0100BRP91034', '0100BRP91035', '0100BRP91036', '0100BRP91037', '0100BRP91038', '0100BRP91039', '0100BRP91040', '0100BRP91041', '0100BRP91042', '0100BRP91043', '0100BRP91044', '0100BRP91045', '0100BRP91046', '0100BRP91047', '0100BRP91048', '0100BRP91049', '0100BRP91050', '0100BRP91051', '0100BRP91052', '0100BRP91053', '0100BRP91054', '0100BRP91055', '0100BRP91057', '0100BRP91058', '0100BRP91059', '0100BRP91060', '0100BRP91061', '0100BRP91062', '0100BRP91063', '0100BRP91064', '0100BRP91065', '0100BRP91066', '0100BRP91067', '0100BRP91068', '0100BRP91071', '0100BRP91072', '0100BRP91073', '0100BRP91074', '0100BRP91075', '0100BRP91076', '0100BRP91077', '0100BRP91078', '0100BRP91080', '0100BRP91081', '0100BRP91082', '0100BRP91083', '0100BRP91084', '0100BRP91085', '0100BRP91086', '0100BRP91087', '0100BRP91088', '0100BRP91089', '0100BRP91090', '0100BRP91091', '0100BRP91092', '0100BRP91093', '0100BRP91094', '0100BRP91095', '0100BRP91096', '0100BRP91097', '0100BRP91098', '0100BRP91099', '0100BRP91100', '0100BRP91102', '0100BRP91103', '0100BRP91104', '0100BRP91105', '0100BRP91106', '0100BRP91107', '0100BRP91108', '0100BRP91109', '0100BRP91112', '0100BRP91113', '0100BRP91114', '0100BRP91115', '0100BRP92000', '0100BRP92001', '0100BRP92002', '0100BRP92003', '0100BRP92004', '0100BRP92005', '0100BRP92006', '0100BRP92007', '0100BRP92008', '0100BRP92009', '0100BRP92010', '0100BRP92011', '0100BRP92012', '0100BRP92013', '0100BRP92014', '0100BRP92015', '0100BRP92016', '0100BRP92017', '0100BRP92018', '0100BRP92019', '0100BRP92020', '0100BRP92021', '0100BRP92022', '0100BRP92023', '0100BRP92024', '0100BRP92025', '0100BRP92026', '0100BRP92027', '0100BRP92028', '0100BRP92029', '0100BRP92030', '0100BRP92031', '0100BRP92032', '0100BRP92033', '0100BRP92034', '0100BRP92035', '0100BRP92036', '0100BRP92037', '0100BRP92038', '0100BRP92039', '0100BRP92040', '0100BRP92041', '0100BRP92042', '0100BRP92043', '0100BRP92044', '0100BRP92045', '0100BRP92046', '0100BRP92047', '0100BRP92048', '0100BRP92049', '0100BRP92050', '0100BRP92051', '0100BRP92052', '0100BRP92053', '0100BRP92054', '0100BRP92055', '0100BRP92056', '0100BRP92057', '0100BRP92058', '0100BRP92059', '0100BRP92060', '0100BRP92061', '0100BRP92062', '0100BRP92063', '0100BRP92064', '0100BRP92065', '0100BRP92066', '0100BRP92067', '0100BRP92068', '0100BRP92069', '0100BRP92071', '0100BRP92072', '0100BRP92073', '0100BRP92074', '0100BRP92075', '0100BRP92076', '0100BRP92077', '0100BRP92078', '0100BRP92079', '0100BRP92080', '0100BRP92081', '0100BRP92082', '0100BRX32920', '0100BRX32921', '0100BRX32922', '0100BRX43052', '0100BRX43055', '0100BRZ00678', '0100BRZ00681', '0100BRZ00686', '0100BRZ00687', '0100BRZ00692', '0100BRZ00694', '0100BRZ00695', '0100BRZ00696', '0100BRZ00698', '0100BRZ00699', '0100BRZ00702', '0100BRZ00703', '0100BRZ00704', '0100BRZ00705', '0100BRZ01655', '0100BRZ01656', '0100BRZ01657', '0100BRZ01658', '0100BRZ01659', '0100BRZ01660', '0100BRZ01661', '0100BRZ01662', '0100BRZ01663', '0100BRZ01664', '0100BRZ01665', '0100BRZ01666', '0100BRZ01667', '0100BRZ01668', '0100BRZ01669', '0100BRZ01670', '0100BRZ01671', '0100BRZ01672', '0100BRZ01673', '0100BRZ01674', '0100BRZ01675', '0100BRZ01676', '0100BRZ01677', '0100BRZ01678', '0100BRZ01679', '0100BRZ01680', '0100BRZ01682', '0100BRZ01683', '0100BRZ01684', '0100BRZ01685', '0100BRZ01686', '0100BRZ01687', '0100BRZ01688', '0100BRZ01689', '0100BRZ01690', '0100BRZ01691', '0100BRZ01692', '0100BRZ01693', '0100BRZ01694', '0100BRZ01695', '0100BRZ01696', '0100BRZ01697', '0100BRZ01699', '0100BRZ01700', '0100BRZ01701', '0100BRZ01707', '0100BRZ01708', '0100BRZ01709', '0100BRZ01710', '0100BRZ01713', '0100FBX18331', '0100FBX18336', '0100FBX18337', '0100FBX18339', '0100FBX18342', '0100SGB20368', '0100SGP90563', '0100SGY38500', '0100SGZ01485', '0170BRP91110', '0170BRP91111', '0190SBX18338', '1', '10000001', '1000053203', '1000053204', '1000053205', '1000053206', '1000053207', '1000053208', '1000053209', '1000053210', '1000053211', '1000053212', '1000053214', '1000053216', '1000053217', '1000053218', '1000053219', '1000053220', '1000053221', '1000053222', '1000053223', '1000053227', '1000053228', '1000053229', '1000053230', '1000053231', '1000053276', '1000053287', '1000053288', '1000053305', '1000053310', '1000053311', '1000053312', '100053233', '100053234', '100053236', '100053239', '100053240', '100053241', '100053247', '100053248', '100053249', '100053250', '100053252', '100053254', '100053255', '100053256', '100053257', '100053258', '100053259', '100053260', '100053261', '100053262', '100053263', '100053264', '100053265', '100053266', '100053267', '100053274', '100053275', '100053277', '100053278', '100053279', '100053280', '100053281', '100053283', '100053291', '100053293', '100053294', '100053295', '100053296', '100053297', '100053298', '100053299', '100053300', '100053301', '100053303', '100053304', '100053306', '100053309', '100053313', '100053315', '100053316', '100053317', '100053318', '100053319', '100053320', '100053321', '100053324', '100053325', '100053328', '100053329', '100053330', '100053331', '100053332', '100053333', '100053334', '100053335', '100053337', '100053338', '100053339', '100053340', '100053343', '100053344', '100053345', '100053346']</t>
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>18903</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1599</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>['0100BAC30684', '0100BAC30685', '0100BAC30742', '0100BAC30743', '0100BAC30946', '0100BAZ02458', '0100BAZ02459', '0100BRA01797', '0100BRA01798', '0100BRA01799', '0100BRA01800', '0100BRA10006', '0100BRA10007', '0100BRA10008', '0100BRA10009', '0100BRA10010', '0100BRA10011', '0100BRA10012', '0100BRA10013', '0100BRA10014', '0100BRA10015', '0100BRA10016', '0100BRA10021', '0100BRA10022', '0100BRA10023', '0100BRA10024', '0100BRA10025', '0100BRA10026', '0100BRA10027', '0100BRA10029', '0100BRA10030', '0100BRA10031', '0100BRA10032', '0100BRA10033', '0100BRA10034', '0100BRA10035', '0100BRA10036', '0100BRA10037', '0100BRA10038', '0100BRA10039', '0100BRA10040', '0100BRA10041', '0100BRA10042', '0100BRA10047', '0100BRA10048', '0100BRA10049', '0100BRA10050', '0100BRA10051', '0100BRA10052', '0100BRA10053', '0100BRA10054', '0100BRA10055', '0100BRA10056', '0100BRA10057', '0100BRA10059', '0100BRA10062', '0100BRA10064', '0100BRA10065', '0100BRA10066', '0100BRA10067', '0100BRA10068', '0100BRA10069', '0100BRA10070', '0100BRA10071', '0100BRA10072', '0100BRA10073', '0100BRA10074', '0100BRA10075', '0100BRA10076', '0100BRA10077', '0100BRA10078', '0100BRA10079', '0100BRA10080', '0100BRA10081', '0100BRA10082', '0100BRA10083', '0100BRA10084', '0100BRA10086', '0100BRA10087', '0100BRA10088', '0100BRA10089', '0100BRA10090', '0100BRA10091', '0100BRA10092', '0100BRA10093', '0100BRA10094', '0100BRA10095', '0100BRA10096', '0100BRA10097', '0100BRA10098', '0100BRA10099', '0100BRA10100', '0100BRA10101', '0100BRA10102', '0100BRA10103', '0100BRA10104', '0100BRA10105', '0100BRA10106', '0100BRA10107', '0100BRA10108', '0100BRA10109', '0100BRA10110', '0100BRA10111', '0100BRA10112', '0100BRA10113', '0100BRA10114', '0100BRA10115', '0100BRA10116', '0100BRA10117', '0100BRA10119', '0100BRA10120', '0100BRA10121', '0100BRA10122', '0100BRA10123', '0100BRA10124', '0100BRA10125', '0100BRA10126', '0100BRA10127', '0100BRA10128', '0100BRA10129', '0100BRA10130', '0100BRA10131', '0100BRA10132', '0100BRA10133', '0100BRA10134', '0100BRA10135', '0100BRA10136', '0100BRA10137', '0100BRA10138', '0100BRA10139', '0100BRA10140', '0100BRA10143', '0100BRA10144', '0100BRA10145', '0100BRA10146', '0100BRA10147', '0100BRA10148', '0100BRA10149', '0100BRA10150', '0100BRA10151', '0100BRA10152', '0100BRA10153', '0100BRA10154', '0100BRA10155', '0100BRA10156', '0100BRA10157', '0100BRA10158', '0100BRA10159', '0100BRA10160', '0100BRA10161', '0100BRA10162', '0100BRA10163', '0100BRA10164', '0100BRA10165', '0100BRA10166', '0100BRA10167', '0100BRA10168', '0100BRA10169', '0100BRA10170', '0100BRA10171', '0100BRA10172', '0100BRA10173', '0100BRA10174', '0100BRA10175', '0100BRA10176', '0100BRA10177', '0100BRA10178', '0100BRA10179', '0100BRA10180', '0100BRA10181', '0100BRA10182', '0100BRA10183', '0100BRA10184', '0100BRA10187', '0100BRA10188', '0100BRA10189', '0100BRA10190', '0100BRA10191', '0100BRA10192', '0100BRA10193', '0100BRA10195', '0100BRA10196', '0100BRA10197', '0100BRA10198', '0100BRA10199', '0100BRA10200', '0100BRA10201', '0100BRA10202', '0100BRA10203', '0100BRA10204', '0100BRA10205', '0100BRA10206', '0100BRA10207', '0100BRA10208', '0100BRA10209', '0100BRA10210', '0100BRA10211', '0100BRA10212', '0100BRA10213', '0100BRA10214', '0100BRA10215', '0100BRA10216', '0100BRA10217', '0100BRA10218', '0100BRA10219', '0100BRA10220', '0100BRA10221', '0100BRA10225', '0100BRA10229', '0100BRA10230', '0100BRA10231', '0100BRA10233', '0100BRA10235', '0100BRA10236', '0100BRA10237', '0100BRA10238', '0100BRA10239', '0100BRA10240', '0100BRA10241', '0100BRA10242', '0100BRA10243', '0100BRA10244', '0100BRA10245', '0100BRA10246', '0100BRA10247', '0100BRA10248', '0100BRA10249', '0100BRA10250', '0100BRA10251', '0100BRA10252', '0100BRA10253', '0100BRA10254', '0100BRA10255', '0100BRA10256', '0100BRA10257', '0100BRA10258', '0100BRA10259', '0100BRA10260', '0100BRA10261', '0100BRA10262', '0100BRA10263', '0100BRA10264', '0100BRA10265', '0100BRA10266', '0100BRA10267', '0100BRA10269', '0100BRA10270', '0100BRA10272', '0100BRA10273', '0100BRA10274', '0100BRA10275', '0100BRA10276', '0100BRA10277', '0100BRA10278', '0100BRA10279', '0100BRA10280', '0100BRA10281', '0100BRA10282', '0100BRA10283', '0100BRA10284', '0100BRA10285', '0100BRA10286', '0100BRA10287', '0100BRA10288', '0100BRA10289', '0100BRA10290', '0100BRA10291', '0100BRA10292', '0100BRA10293', '0100BRA10294', '0100BRA10295', '0100BRA10296', '0100BRA10297', '0100BRA10298', '0100BRA10299', '0100BRA10300', '0100BRA10301', '0100BRA10302', '0100BRA10303', '0100BRA10304', '0100BRA10305', '0100BRA10306', '0100BRA10308', '0100BRA10309', '0100BRA10311', '0100BRA10312', '0100BRA10313', '0100BRA10315', '0100BRA10316', '0100BRA10317', '0100BRA10318', '0100BRA10319', '0100BRA10320', '0100BRA10321', '0100BRA10323', '0100BRA10324', '0100BRA10325', '0100BRA10326', '0100BRA10327', '0100BRA10328', '0100BRA10329', '0100BRA10330', '0100BRA10331', '0100BRA10332', '0100BRA10333', '0100BRA10334', '0100BRA10335', '0100BRA10336', '0100BRA10337', '0100BRA10339', '0100BRA10340', '0100BRA10342', '0100BRA10343', '0100BRA10344', '0100BRA10352', '0100BRA10353', '0100BRA10354', '0100BRA10355', '0100BRA10356', '0100BRA10357', '0100BRA10358', '0100BRA10359', '0100BRA10360', '0100BRA10361', '0100BRA10362', '0100BRA10363', '0100BRA10364', '0100BRA10365', '0100BRA10366', '0100BRA10367', '0100BRA10368', '0100BRA10369', '0100BRA10370', '0100BRA10371', '0100BRA10372', '0100BRA10373', '0100BRA10374', '0100BRA10375', '0100BRA10376', '0100BRA10377', '0100BRA10378', '0100BRA10381', '0100BRA10382', '0100BRA10383', '0100BRA10384', '0100BRA10385', '0100BRA10386', '0100BRA10392', '0100BRA10393', '0100BRA10394', '0100BRA10395', '0100BRA10396', '0100BRA10397', '0100BRA10398', '0100BRA10399', '0100BRA10400', '0100BRA10401', '0100BRA10403', '0100BRA10404', '0100BRA10405', '0100BRA10406', '0100BRA10407', '0100BRA10408', '0100BRA10409', '0100BRA10410', '0100BRA10411', '0100BRA10412', '0100BRA10413', '0100BRA10414', '0100BRA10415', '0100BRA10417', '0100BRA10418', '0100BRA10419', '0100BRA10421', '0100BRA10423', '0100BRA10425', '0100BRA10426', '0100BRA10427', '0100BRA10428', '0100BRA10429', '0100BRA10430', '0100BRA10431', '0100BRA10432', '0100BRA10433', '0100BRA10434', '0100BRA10435', '0100BRA10436', '0100BRA10437', '0100BRA10438', '0100BRA10439', '0100BRA10440', '0100BRA10441', '0100BRA10442', '0100BRA10443', '0100BRA10444', '0100BRA10445', '0100BRA10446', '0100BRA10447', '0100BRA10448', '0100BRA10449', '0100BRA10450', '0100BRA10451', '0100BRA10452', '0100BRA10453', '0100BRA10454', '0100BRA10455', '0100BRA10456', '0100BRA10457', '0100BRA10458', '0100BRA10459', '0100BRA10460', '0100BRA10461', '0100BRA10464', '0100BRA10465', '0100BRA10466', '0100BRA10467', '0100BRA10468', '0100BRA10469', '0100BRA10470', '0100BRA10471', '0100BRA10472', '0100BRA10473', '0100BRA10474', '0100BRA10475', '0100BRA10476', '0100BRA10477', '0100BRA10478', '0100BRA10479', '0100BRA10480', '0100BRA10481', '0100BRA10482', '0100BRA10483', '0100BRA10484', '0100BRA10485', '0100BRA10486', '0100BRA10487', '0100BRA10488', '0100BRA10489', '0100BRA10490', '0100BRA10491', '0100BRA10492', '0100BRA10493', '0100BRA10494', '0100BRA10495', '0100BRA10496', '0100BRA10497', '0100BRA10498', '0100BRA10499', '0100BRA10500', '0100BRA10501', '0100BRA10502', '0100BRA10503', '0100BRA10504', '0100BRA10505', '0100BRA10506', '0100BRA10507', '0100BRA10508', '0100BRA10509', '0100BRA10510', '0100BRA10511', '0100BRA10512', '0100BRA10513', '0100BRA10514', '0100BRA10515', '0100BRA10516', '0100BRA10521', '0100BRA10522', '0100BRA10523', '0100BRA10524', '0100BRA10525', '0100BRA10527', '0100BRA10528', '0100BRA10529', '0100BRA10530', '0100BRA10531', '0100BRA10532', '0100BRA10533', '0100BRA10534', '0100BRA10535', '0100BRA10536', '0100BRA10537', '0100BRA10538', '0100BRA10539', '0100BRA10540', '0100BRA10543', '0100BRA10544', '0100BRA10545', '0100BRA10546', '0100BRA10547', '0100BRA10548', '0100BRA10549', '0100BRA10550', '0100BRA10551', '0100BRA10553', '0100BRA10554', '0100BRA10555', '0100BRA10556', '0100BRA10557', '0100BRA10558', '0100BRA10559', '0100BRA10560', '0100BRA10561', '0100BRA10562', '0100BRA10563', '0100BRA10564', '0100BRA10565', '0100BRA10566', '0100BRA10567', '0100BRA10570', '0100BRA10571', '0100BRA10572', '0100BRA10574', '0100BRA10575', '0100BRA10576', '0100BRA10577', '0100BRA10578', '0100BRA10579', '0100BRA10580', '0100BRA10583', '0100BRA10584', '0100BRA10585', '0100BRA10586', '0100BRA10587', '0100BRA10588', '0100BRA10589', '0100BRA10590', '0100BRA10591', '0100BRA10592', '0100BRA10593', '0100BRA10594', '0100BRA10595', '0100BRA10596', '0100BRA10598', '0100BRA10599', '0100BRA10600', '0100BRA10601', '0100BRA10602', '0100BRA10603', '0100BRA10604', '0100BRA10605', '0100BRA10606', '0100BRA10607', '0100BRA10608', '0100BRA10609', '0100BRA10614', '0100BRA10616', '0100BRA10617', '0100BRA10618', '0100BRA10619', '0100BRA10620', '0100BRA10621', '0100BRA10622', '0100BRA10623', '0100BRA10624', '0100BRA10625', '0100BRA10626', '0100BRA10627', '0100BRA10628', '0100BRA10629', '0100BRA10630', '0100BRA10631', '0100BRA10632', '0100BRA10633', '0100BRA10634', '0100BRA10635', '0100BRA10636', '0100BRA10637', '0100BRA10638', '0100BRA10639', '0100BRA10640', '0100BRA10641', '0100BRA10642', '0100BRA10643', '0100BRA10644', '0100BRA10645', '0100BRA10647', '0100BRA10648', '0100BRA10649', '0100BRA10650', '0100BRA10651', '0100BRA10652', '0100BRA10653', '0100BRA10654', '0100BRA10655', '0100BRA10656', '0100BRA10657', '0100BRA10658', '0100BRA10659', '0100BRA10660', '0100BRA10661', '0100BRA10662', '0100BRA10663', '0100BRA10665', '0100BRA10666', '0100BRA10667', '0100BRA10668', '0100BRA10669', '0100BRA10673', '0100BRA10674', '0100BRA10675', '0100BRA10676', '0100BRA10677', '0100BRA10678', '0100BRA10679', '0100BRA10680', '0100BRA10681', '0100BRA10682', '0100BRA10683', '0100BRA10684', '0100BRA10685', '0100BRA10686', '0100BRA10687', '0100BRA10691', '0100BRA10692', '0100BRA10693', '0100BRA10696', '0100BRA10697', '0100BRA10698', '0100BRA10699', '0100BRA10700', '0100BRA10701', '0100BRA10702', '0100BRA10703', '0100BRA10704', '0100BRA10706', '0100BRA10707', '0100BRA10708', '0100BRA10709', '0100BRA10710', '0100BRA10711', '0100BRA10712', '0100BRA10713', '0100BRA10714', '0100BRA10715', '0100BRA10716', '0100BRA10717', '0100BRA10718', '0100BRA10719', '0100BRA10720', '0100BRA10721', '0100BRA10722', '0100BRA10723', '0100BRA10724', '0100BRA10725', '0100BRA10728', '0100BRA10729', '0100BRA10730', '0100BRA10731', '0100BRA10732', '0100BRA10733', '0100BRA10734', '0100BRA10735', '0100BRA10736', '0100BRA10737', '0100BRA10738', '0100BRA10739', '0100BRA10740', '0100BRA10741', '0100BRA10743', '0100BRA10744', '0100BRA10745', '0100BRA10746', '0100BRA10747', '0100BRA10748', '0100BRA10749', '0100BRA10751', '0100BRA10752', '0100BRA10753', '0100BRA10754', '0100BRA10755', '0100BRA10756', '0100BRA10757', '0100BRA10758', '0100BRA10759', '0100BRA10760', '0100BRA10761', '0100BRA10762', '0100BRA10763', '0100BRA10764', '0100BRA10765', '0100BRA10766', '0100BRA10767', '0100BRA10768', '0100BRA10769', '0100BRA10771', '0100BRA10772', '0100BRA10773', '0100BRA10774', '0100BRA10775', '0100BRA10776', '0100BRA10777', '0100BRA10780', '0100BRA10781', '0100BRA10782', '0100BRA10783', '0100BRA10784', '0100BRA10785', '0100BRA10786', '0100BRA10787', '0100BRA10788', '0100BRA10789', '0100BRA10790', '0100BRA10791', '0100BRA10792', '0100BRA10793', '0100BRA10794', '0100BRA10795', '0100BRA10796', '0100BRA10797', '0100BRA10798', '0100BRA10799', '0100BRA10800', '0100BRA10801', '0100BRA10802', '0100BRA10807', '0100BRA10808', '0100BRA10809', '0100BRA10810', '0100BRA10811', '0100BRA10812', '0100BRA10813', '0100BRA10814', '0100BRA10815', '0100BRA10816', '0100BRA10817', '0100BRA10818', '0100BRA10819', '0100BRA10820', '0100BRA10821', '0100BRA10822', '0100BRA10823', '0100BRA10831', '0100BRA10832', '0100BRA10833', '0100BRA10834', '0100BRA10835', '0100BRA10836', '0100BRA10837', '0100BRA10838', '0100BRA10839', '0100BRA10840', '0100BRA10841', '0100BRA10842', '0100BRA10843', '0100BRA10844', '0100BRA10845', '0100BRA10846', '0100BRA10847', '0100BRA10848', '0100BRA10849', '0100BRA10850', '0100BRA10851', '0100BRA10852', '0100BRA10853', '0100BRA10854', '0100BRA10855', '0100BRA10856', '0100BRA10857', '0100BRA10858', '0100BRA10859', '0100BRA10860', '0100BRA10861', '0100BRA10862', '0100BRA10863', '0100BRA10864', '0100BRA10865', '0100BRA10866', '0100BRA10867', '0100BRA10868', '0100BRA10869', '0100BRA10870', '0100BRA10871', '0100BRA10872', '0100BRA10873', '0100BRA10874', '0100BRA10878', '0100BRA10879', '0100BRA10880', '0100BRA10881', '0100BRA10882', '0100BRA10883', '0100BRA10884', '0100BRA10885', '0100BRA10888', '0100BRA10889', '0100BRA10890', '0100BRA10891', '0100BRA10892', '0100BRA10893', '0100BRA10894', '0100BRA10895', '0100BRA10896', '0100BRA10897', '0100BRA10898', '0100BRA10903', '0100BRA10904', '0100BRA10905', '0100BRA10906', '0100BRA10907', '0100BRA10908', '0100BRA10909', '0100BRA10910', '0100BRA10911', '0100BRA10915', '0100BRA10916', '0100BRA10917', '0100BRA10918', '0100BRA10919', '0100BRA10922', '0100BRA10923', '0100BRA10924', '0100BRA10925', '0100BRA10926', '0100BRA10927', '0100BRA10928', '0100BRA10929', '0100BRA10930', '0100BRA10931', '0100BRA10932', '0100BRA10933', '0100BRA10934', '0100BRA10935', '0100BRA10937', '0100BRA10941', '0100BRA10942', '0100BRA10943', '0100BRA10945', '0100BRA10946', '0100BRA16901', '0100BRA16902', '0100BRA16903', '0100BRA16904', '0100BRA16905', '0100BRA16906', '0100BRA16907', '0100BRA16908', '0100BRA16910', '0100BRA16911', '0100BRA16924', '0100BRA16925', '0100BRA16928', '0100BRA16931', '0100BRA16933', '0100BRA16934', '0100BRA16936', '0100BRA16938', '0100BRA16939', '0100BRA16940', '0100BRA16942', '0100BRA16943', '0100BRA16944', '0100BRA16946', '0100BRA16947', '0100BRA46637', '0100BRA46638', '0100BRA46639', '0100BRA46640', '0100BRA46641', '0100BRA46642', '0100BRA46643', '0100BRA46644', '0100BRA46645', '0100BRA46646', '0100BRA46647', '0100BRA46648', '0100BRA46649', '0100BRA46650', '0100BRA46651', '0100BRA46653', '0100BRA46654', '0100BRA46655', '0100BRA46656', '0100BRA46657', '0100BRA46658', '0100BRA56546', '0100BRA56547', '0100BRA56548', '0100BRA56549', '0100BRA56550', '0100BRA56551', '0100BRA56552', '0100BRA56553', '0100BRA56554', '0100BRA56555', '0100BRA56556', '0100BRA56557', '0100BRA56560', '0100BRA56561', '0100BRA56563', '0100BRA56564', '0100BRA56565', '0100BRA56566', '0100BRA56567', '0100BRA56568', '0100BRA56569', '0100BRA56570', '0100BRA56572', '0100BRA56573', '0100BRA56574', '0100BRA56575', '0100BRA56576', '0100BRA56577', '0100BRA56578', '0100BRA56579', '0100BRA56580', '0100BRA56581', '0100BRC53349', '0100BRC53350', '0100BRC53351', '0100BRC53355', '0100BRC53356', '0100BRC53357', '0100BRC53358', '0100BRC53359', '0100BRC53363', '0100BRC53364', '0100BRC53365', '0100BRC53367', '0100BRC53368', '0100BRC53372', '0100BRC53374', '0100BRC53375', '0100BRC53378', '0100BRC53380', '0100BRC53381', '0100BRC53382', '0100BRC53383', '0100BRC53384', '0100BRC53385', '0100BRC53386', '0100BRC53387', '0100BRC53388', '0100BRC53390', '0100BRC53391', '0100BRC53393', '0100BRC53394', '0100BRC53395', '0100BRC53396', '0100BRC53397', '0100BRC53398', '0100BRC53399', '0100BRC53400', '0100BRC53403', '0100BRC53404', '0100BRC53405', '0100BRC53406', '0100BRC53407', '0100BRC53408', '0100BRP90003', '0100BRP90004', '0100BRP90008', '0100BRP90009', '0100BRP90010', '0100BRP90011', '0100BRP90012', '0100BRP90013', '0100BRP90015', '0100BRP90017', '0100BRP90018', '0100BRP90019', '0100BRP90021', '0100BRP90023', '0100BRP90025', '0100BRP90026', '0100BRP90027', '0100BRP90028', '0100BRP90029', '0100BRP90030', '0100BRP90031', '0100BRP90032', '0100BRP90033', '0100BRP90034', '0100BRP90035', '0100BRP90036', '0100BRP90037', '0100BRP90038', '0100BRP90039', '0100BRP90040', '0100BRP90056', '0100BRP90057', '0100BRP90058', '0100BRP90059', '0100BRP90060', '0100BRP90061', '0100BRP90063', '0100BRP90064', '0100BRP90065', '0100BRP90066', '0100BRP90067', '0100BRP90068', '0100BRP90069', '0100BRP90070', '0100BRP90071', '0100BRP90074', '0100BRP90075', '0100BRP90076', '0100BRP90077', '0100BRP90078', '0100BRP90079', '0100BRP90080', '0100BRP90081', '0100BRP90082', '0100BRP90083', '0100BRP90084', '0100BRP90085', '0100BRP90086', '0100BRP90087', '0100BRP90088', '0100BRP90089', '0100BRP90090', '0100BRP90091', '0100BRP90092', '0100BRP90093', '0100BRP90094', '0100BRP90095', '0100BRP90096', '0100BRP90097', '0100BRP90098', '0100BRP90100', '0100BRP90101', '0100BRP90102', '0100BRP90103', '0100BRP90104', '0100BRP90105', '0100BRP90106', '0100BRP90107', '0100BRP90108', '0100BRP90109', '0100BRP90110', '0100BRP90111', '0100BRP90112', '0100BRP90114', '0100BRP90116', '0100BRP90117', '0100BRP90118', '0100BRP90119', '0100BRP90120', '0100BRP90121', '0100BRP90122', '0100BRP90123', '0100BRP90124', '0100BRP90125', '0100BRP90127', '0100BRP90128', '0100BRP90129', '0100BRP90130', '0100BRP90131', '0100BRP90132', '0100BRP90133', '0100BRP90134', '0100BRP90135', '0100BRP90136', '0100BRP90137', '0100BRP90138', '0100BRP90140', '0100BRP90141', '0100BRP90142', '0100BRP90143', '0100BRP90145', '0100BRP90146', '0100BRP90149', '0100BRP90150', '0100BRP90151', '0100BRP90153', '0100BRP90154', '0100BRP90155', '0100BRP90156', '0100BRP90157', '0100BRP90158', '0100BRP90163', '0100BRP90165', '0100BRP90166', '0100BRP90167', '0100BRP90168', '0100BRP90169', '0100BRP90170', '0100BRP90171', '0100BRP90173', '0100BRP90174', '0100BRP90175', '0100BRP90176', '0100BRP90177', '0100BRP90178', '0100BRP90179', '0100BRP90180', '0100BRP90181', '0100BRP90183', '0100BRP90184', '0100BRP90185', '0100BRP90186', '0100BRP90187', '0100BRP90188', '0100BRP90189', '0100BRP90190', '0100BRP90191', '0100BRP90192', '0100BRP90195', '0100BRP90196', '0100BRP90197', '0100BRP90199', '0100BRP90200', '0100BRP90201', '0100BRP90202', '0100BRP90203', '0100BRP90204', '0100BRP90205', '0100BRP90206', '0100BRP90207', '0100BRP90208', '0100BRP90210', '0100BRP90211', '0100BRP90212', '0100BRP90213', '0100BRP90214', '0100BRP90215', '0100BRP90216', '0100BRP90217', '0100BRP90218', '0100BRP90219', '0100BRP90221', '0100BRP90224', '0100BRP90225', '0100BRP90226', '0100BRP90227', '0100BRP90228', '0100BRP90231', '0100BRP90232', '0100BRP90233', '0100BRP90234', '0100BRP90235', '0100BRP90236', '0100BRP90237', '0100BRP90268', '0100BRP90269', '0100BRP90270', '0100BRP90271', '0100BRP90272', '0100BRP90273', '0100BRP90307', '0100BRP90308', '0100BRP90309', '0100BRP90310', '0100BRP90311', '0100BRP90312', '0100BRP90313', '0100BRP90317', '0100BRP90318', '0100BRP90319', '0100BRP90320', '0100BRP90324', '0100BRP90325', '0100BRP90326', '0100BRP90327', '0100BRP90328', '0100BRP90329', '0100BRP90330', '0100BRP90332', '0100BRP90333', '0100BRP90335', '0100BRP90336', '0100BRP90337', '0100BRP90338', '0100BRP90339', '0100BRP90340', '0100BRP90341', '0100BRP90342', '0100BRP90343', '0100BRP90344', '0100BRP90345', '0100BRP90346', '0100BRP90347', '0100BRP90348', '0100BRP90349', '0100BRP90350', '0100BRP90354', '0100BRP90355', '0100BRP90356', '0100BRP90357', '0100BRP90363', '0100BRP90364', '0100BRP90365', '0100BRP90366', '0100BRP90368', '0100BRP90369', '0100BRP90371', '0100BRP90372', '0100BRP90373', '0100BRP90377', '0100BRP90378', '0100BRP90379', '0100BRP90380', '0100BRP90381', '0100BRP90382', '0100BRP90383', '0100BRP90384', '0100BRP90385', '0100BRP90386', '0100BRP90387', '0100BRP90388', '0100BRP90396', '0100BRP90399', '0100BRP90402', '0100BRP90404', '0100BRP90405', '0100BRP90408', '0100BRP90409', '0100BRP90671', '0100BRP90673', '0100BRP90674', '0100BRP90675', '0100BRP90676', '0100BRP90677', '0100BRP90678', '0100BRP90979', '0100BRP90981', '0100BRP90982', '0100BRP90983', '0100BRP90984', '0100BRP90986', '0100BRP90987', '0100BRP90988', '0100BRP90989', '0100BRP90990', '0100BRP90991', '0100BRP90996', '0100BRP90997', '0100BRP90998', '0100BRP90999', '0100BRP91001', '0100BRP91002', '0100BRP91003', '0100BRP91004', '0100BRP91005', '0100BRP91006', '0100BRP91008', '0100BRP91011', '0100BRP91012', '0100BRP91013', '0100BRP91014', '0100BRP91015', '0100BRP91016', '0100BRP91017', '0100BRP91018', '0100BRP91019', '0100BRP91020', '0100BRP91021', '0100BRP91022', '0100BRP91023', '0100BRP91024', '0100BRP91027', '0100BRP91028', '0100BRP91029', '0100BRP91030', '0100BRP91031', '0100BRP91032', '0100BRP91033', '0100BRP91034', '0100BRP91035', '0100BRP91036', '0100BRP91037', '0100BRP91038', '0100BRP91039', '0100BRP91040', '0100BRP91041', '0100BRP91042', '0100BRP91043', '0100BRP91044', '0100BRP91045', '0100BRP91046', '0100BRP91047', '0100BRP91048', '0100BRP91049', '0100BRP91050', '0100BRP91051', '0100BRP91052', '0100BRP91053', '0100BRP91054', '0100BRP91055', '0100BRP91057', '0100BRP91058', '0100BRP91059', '0100BRP91060', '0100BRP91061', '0100BRP91062', '0100BRP91063', '0100BRP91064', '0100BRP91065', '0100BRP91066', '0100BRP91067', '0100BRP91068', '0100BRP91071', '0100BRP91072', '0100BRP91073', '0100BRP91074', '0100BRP91075', '0100BRP91076', '0100BRP91077', '0100BRP91078', '0100BRP91080', '0100BRP91081', '0100BRP91082', '0100BRP91083', '0100BRP91084', '0100BRP91085', '0100BRP91086', '0100BRP91087', '0100BRP91088', '0100BRP91089', '0100BRP91090', '0100BRP91091', '0100BRP91092', '0100BRP91093', '0100BRP91094', '0100BRP91095', '0100BRP91096', '0100BRP91097', '0100BRP91098', '0100BRP91099', '0100BRP91100', '0100BRP91102', '0100BRP91103', '0100BRP91104', '0100BRP91105', '0100BRP91106', '0100BRP91107', '0100BRP91108', '0100BRP91109', '0100BRP91112', '0100BRP91113', '0100BRP91114', '0100BRP91115', '0100BRP92000', '0100BRP92001', '0100BRP92002', '0100BRP92003', '0100BRP92004', '0100BRP92005', '0100BRP92006', '0100BRP92007', '0100BRP92008', '0100BRP92009', '0100BRP92010', '0100BRP92011', '0100BRP92012', '0100BRP92013', '0100BRP92014', '0100BRP92015', '0100BRP92016', '0100BRP92017', '0100BRP92018', '0100BRP92019', '0100BRP92020', '0100BRP92021', '0100BRP92022', '0100BRP92023', '0100BRP92024', '0100BRP92025', '0100BRP92026', '0100BRP92027', '0100BRP92028', '0100BRP92029', '0100BRP92030', '0100BRP92031', '0100BRP92032', '0100BRP92033', '0100BRP92034', '0100BRP92035', '0100BRP92036', '0100BRP92037', '0100BRP92038', '0100BRP92039', '0100BRP92040', '0100BRP92041', '0100BRP92042', '0100BRP92043', '0100BRP92044', '0100BRP92045', '0100BRP92046', '0100BRP92047', '0100BRP92048', '0100BRP92049', '0100BRP92050', '0100BRP92051', '0100BRP92052', '0100BRP92053', '0100BRP92054', '0100BRP92055', '0100BRP92056', '0100BRP92057', '0100BRP92058', '0100BRP92059', '0100BRP92060', '0100BRP92061', '0100BRP92062', '0100BRP92063', '0100BRP92064', '0100BRP92065', '0100BRP92066', '0100BRP92067', '0100BRP92068', '0100BRP92069', '0100BRP92071', '0100BRP92072', '0100BRP92073', '0100BRP92074', '0100BRP92075', '0100BRP92076', '0100BRP92077', '0100BRP92078', '0100BRP92079', '0100BRP92080', '0100BRP92081', '0100BRP92082', '0100BRX32920', '0100BRX32921', '0100BRX32922', '0100BRX43052', '0100BRX43055', '0100BRZ00678', '0100BRZ00681', '0100BRZ00686', '0100BRZ00687', '0100BRZ00692', '0100BRZ00694', '0100BRZ00695', '0100BRZ00696', '0100BRZ00698', '0100BRZ00699', '0100BRZ00702', '0100BRZ00703', '0100BRZ00704', '0100BRZ00705', '0100BRZ01655', '0100BRZ01656', '0100BRZ01657', '0100BRZ01658', '0100BRZ01659', '0100BRZ01660', '0100BRZ01661', '0100BRZ01662', '0100BRZ01663', '0100BRZ01664', '0100BRZ01665', '0100BRZ01666', '0100BRZ01667', '0100BRZ01668', '0100BRZ01669', '0100BRZ01670', '0100BRZ01671', '0100BRZ01672', '0100BRZ01673', '0100BRZ01674', '0100BRZ01675', '0100BRZ01676', '0100BRZ01677', '0100BRZ01678', '0100BRZ01679', '0100BRZ01680', '0100BRZ01682', '0100BRZ01683', '0100BRZ01684', '0100BRZ01685', '0100BRZ01686', '0100BRZ01687', '0100BRZ01688', '0100BRZ01689', '0100BRZ01690', '0100BRZ01691', '0100BRZ01692', '0100BRZ01693', '0100BRZ01694', '0100BRZ01695', '0100BRZ01696', '0100BRZ01697', '0100BRZ01699', '0100BRZ01700', '0100BRZ01701', '0100BRZ01707', '0100BRZ01708', '0100BRZ01709', '0100BRZ01710', '0100BRZ01713', '0100FBX18331', '0100FBX18336', '0100FBX18337', '0100FBX18339', '0100FBX18342', '0100SGB20368', '0100SGP90563', '0100SGY38500', '0100SGZ01485', '0170BRP91110', '0170BRP91111', '0190SBX18338', '10000001', '1000053203', '1000053204', '1000053205', '1000053206', '1000053207', '1000053208', '1000053209', '1000053210', '1000053211', '1000053212', '1000053214', '1000053216', '1000053217', '1000053218', '1000053219', '1000053220', '1000053221', '1000053222', '1000053223', '1000053227', '1000053228', '1000053229', '1000053230', '1000053231', '1000053276', '1000053287', '1000053288', '1000053305', '1000053310', '1000053311', '1000053312', '100053233', '100053234', '100053236', '100053239', '100053240', '100053241', '100053247', '100053248', '100053249', '100053250', '100053252', '100053254', '100053255', '100053256', '100053257', '100053258', '100053259', '100053260', '100053261', '100053262', '100053263', '100053264', '100053265', '100053266', '100053267', '100053274', '100053275', '100053277', '100053278', '100053279', '100053280', '100053281', '100053283', '100053291', '100053293', '100053294', '100053295', '100053296', '100053297', '100053298', '100053299', '100053300', '100053301', '100053303', '100053304', '100053306', '100053309', '100053313', '100053315', '100053316', '100053317', '100053318', '100053319', '100053320', '100053321', '100053324', '100053325', '100053328', '100053329', '100053330', '100053331', '100053332', '100053333', '100053334', '100053335', '100053337', '100053338', '100053339', '100053340', '100053343', '100053344', '100053345', '100053346']</t>
         </is>
       </c>
     </row>
@@ -553,10 +569,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E3" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -589,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -605,12 +621,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>66</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>16528</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>92</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>["Arno's Vale", 'Ashley Down', 'Ashton Gate', 'Ashton Vale', 'Avonmouth', 'Barton Hill', 'Bedminster', 'Bedminster Down', 'Bishopston', 'Bishopsworth', 'Bower Ashton', 'Brentry', 'Brislington', 'Bristol Bus Station', 'Bristol City Centre', 'Broadmead', 'Broom Hill', 'Broomhill', "Canon's Marsh", 'Clifton', 'Clifton (Bristol)', 'Clifton Down', 'Coombe Dingle', 'Cotham', 'Crofts End', 'Easton', 'Eastville', 'Eastville (Bristol)', 'Filwood Park', 'Fishponds', 'Frenchay', 'Golden Hill', 'Harbour', 'Hartcliffe', 'Headley Park', 'Henbury', 'Hengrove', 'Hengrove Park', 'Henleaze', 'Highridge', 'Highridge (Bristol)', 'Hillfields', 'Horfield', 'Horfield Common', 'Hotwells', "Inn's Court", 'Kingsdown', 'Knowle', 'Lawrence Hill', 'Lawrence Hill (Bristol', 'Lawrence Hill (Bristol)', 'Lawrence Weston', 'Lockleaze', 'Long Ashton', 'Lower Knowle', 'Montpelier', 'Novers Park', 'Old Market', 'Oldbury Court', 'Redcliffe', 'Redfield', 'Redland', 'Sea Mills', 'Shirehampton', 'Sneyd Park', 'Soundwell', 'Southmead', 'Southville', 'Southville (Bristol', 'Southville (Bristol)', 'Speedwell', 'St Andrews', "St Anne's", "St Anne's Park", 'St George', 'St Pauls', 'St Werburghs', 'Stapleton', 'Stockwood', 'Stoke Bishop', 'Temple Meads', 'The Dings', 'Totterdown', 'Two Mile Hill', "Tyndall's Park", 'Westbury Park', 'Westbury on Trym', 'Whitchurch', 'Whitchurch (Bristol)', 'Whitehall', 'Windmill Hill', 'Withywood']</t>
         </is>
@@ -631,10 +653,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E4" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -658,7 +680,7 @@
         <v>-1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>24</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>23125</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>1029</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['Airport Road (a)', 'Airport Road (b)', 'Airport Road (c)', 'Airport Road (d)', 'Akeman Way', 'Alberton Road', 'Alcove Road', 'Aldercombe Road', 'Alfred Road', 'Allison Avenue', 'Allison Road', 'Alma Vale', 'Alverstoke', 'Ambleside Avenue', 'Anchor Road (pa)', 'Anchor Road (pb)', 'Anchor Road (pc)', 'Anchor Road (pd)', 'Anchor Road (pi)', 'Apsley Road (a)', 'Apsley Road (b)', 'Apsley Road (c)', 'Arbutus Drive', 'Arglye Road', 'Arlington Road (a)', 'Arlington Road (b)', 'Arlington Road (c)', 'Armoury Square', 'Arnall Drive', "Arno's Court (a)", "Arno's Court (b)", "Arno's Court (c)", "Arno's Court (d)", "Arno's Vale Cemetry", 'Arnside Road', 'Asda Oatlands Ave', 'Ashfield Road', 'Ashley Down Rd (a)', 'Ashley Down Rd (b)', 'Ashley Down Rd (c)', 'Ashley Park', 'Ashton Drive', 'Ashton Park School', 'Atlas Rd Kensal Rd', 'Avon Crescent', 'Avon Street', 'Avon Way', 'Avonmouth Station', 'Avonmouth Way', 'BRI (hj)', 'BRI (hk)', 'BRI (hl)', 'Badenham Grove', 'Badminton School', 'Badocks Wood Sch', 'Baldwin Street (ba)', 'Baldwin Street (bb)', 'Baldwin Street (bc)', 'Baldwin Street (bd)', 'Baldwin Street (be)', 'Baldwin Street (bi)', 'Baldwin Street (bj)', 'Balmoral Road', 'Baltic Wharf', "Barrack's Lane", 'Barrow Hill Road', "Bath Rd S'wood Rd", 'Bath Street', 'Battson Road', 'Bayswater Avenue', 'Beaconsfield Road', 'Beam Street', 'Bedminster College', 'Bedminster Down (a)', 'Bedminster Down (b)', 'Bedminster Down (c)', 'Bedminster Down Rd', 'Bedminster Pde (a)', 'Bedminster Pde (b)', 'Bedminster Pde (c)', 'Bedminster Pde (d)', 'Bedminster Road', 'Begbrook Lane', 'Begbrook Park', 'Belgrave Road (a)', 'Belgrave Road (b)', 'Belland Drive (a)', 'Belland Drive (b)', 'Belland Drive (c)', 'Belland Drive (d)', 'Bellevue Road', 'Bellvue Road', 'Belvoir Road', 'Beryl Grove', 'Bideford Crescent', 'Bifield Gardens', 'Birchall Road', 'Bishopsworth Baths', 'Bishopsworth Lib.', 'Bishopthorpe Road', 'Bishport Ave (a)', 'Bishport Ave (b)', 'Black Boy Hill (a)', 'Black Boy Hill (b)', 'Black Boy Hill (c)', 'Black Boy Hill (d)', 'Blackberry Hosp (a)', 'Blackberry Hosp (b)', 'Blackberry Hosp (c)', 'Blackhorse Road', 'Blackmoors Lane', 'Blackswarth Rd (d)', 'Blackswarth Road', 'Blaise Castle', 'Blakeney Road', 'Bond Street (ok)', 'Bond Street (ol)', 'Bond Street (om)', 'Bond Street (ou)', 'Bond Street (rb)', 'Bond Street (rc)', 'Bond Street (rd)', 'Boswell Street', 'Bower Ashton Campus', 'Breach Road', 'Brecknock Road', 'Brecon Road', 'Brendon Road', 'Brentry Hill', 'Brentry Hospital', 'Brentry Lane', 'Brentry Roundabout', 'Briar Way', 'Bridge Campus', 'Bridge Valley Road', 'Bridge Walk', 'Bridgwater Road', 'Briery Leaze Road', 'Brigstocke Road', 'Brinkworthy Road', 'Brislington Hill', 'Brislington House', 'Brislington P&amp;R', 'Brislington School', 'Brislington Sq (a)', 'Brislington Sq (b)', 'Bristol Zoo', 'Brixham Road', 'Broad Walk Shops (a)', 'Broad Walk Shops (b)', 'Broad Walk Shops (c)', 'Broad Walk Sq (a)', 'Broad Walk Sq (b)', 'Broad Walk Sq (c)', 'Broad Walk Sq (d)', 'Broad Weir (sa)', 'Broad Weir (sb)', 'Broad Weir (sv)', 'Broad Weir (sw)', 'Broadbury Road', 'Broadlands Drive', 'Brook Road', 'Brooklyn Road (a)', 'Brooklyn Road (b)', 'Broom Hill', 'Broomhill Road', 'Brunswick Street', 'Bryants Hill (a)', 'Bryants Hill (c)', 'Buckingham Road', 'Burghill Road', 'Bus Station Bay 1', 'Bus Station Bay 10', 'Bus Station Bay 11', 'Bus Station Bay 12', 'Bus Station Bay 13', 'Bus Station Bay 14', 'Bus Station Bay 15', 'Bus Station Bay 16', 'Bus Station Bay 17', 'Bus Station Bay 18', 'Bus Station Bay 19', 'Bus Station Bay 2', 'Bus Station Bay 3', 'Bus Station Bay 4', 'Bus Station Bay 5', 'Bus Station Bay 6', 'Bus Station Bay 7', 'Bus Station Bay 8', 'Bus Station Bay 9', 'Cabot Circus A', 'Cabot Circus B', 'Cabot Circus C', 'Cadogan Road', 'Callington Road', 'Cambridge Street', 'Camden Road', 'Cameron Walk', 'Canford Cemetery', 'Canford Park', 'Cannon Street', "Cantock's Close", 'Carisbrooke Road', 'Cassell Road', 'Catherine Mead St', 'Cavan Walk', 'Cedar Park', 'Chakeshill Drive', "Channon's Hill (d)", 'Channons Hill (a)', 'Channons Hill (b)', 'Channons Hill (c)', 'Chapel Green Lane', 'Chapel Lane', 'Chapel Way', 'Charfield Road', 'Charlton Rd Junct', 'Charlton Road', 'Charnwood Road', 'Cheddar Grove', 'Chelston Road', 'Cherington Road', 'Cheriton Place', 'Chessel Street', 'Chester Street', 'Chittening Road', 'Christ Church (a)', 'Christ Church (b)', 'Church Avenue', 'Church Lane', 'Church Parade', 'Church Road', 'Church Street', 'Churchill Drive', 'Churchways Ave (a)', 'Churchways Ave (b)', 'Churchways Ave (c)', 'Clanage Road', 'Clare Avenue (a)', 'Clare Avenue (b)', 'Clare Avenue (c)', 'Clatworthy Drive', 'Clift Road', 'Clifton Dn Stn (ww)', 'Clifton Dn Stn (wx)', 'Clifton Dn Stn (wy)', 'Clifton Dn Stn (wz)', 'Clifton High School', 'Clifton Park', 'Clifton Street', 'Clifton Village', 'Clive Road', 'Clouds Hill Avenue', 'Coaley Road', 'College Green (pe)', 'College Green (ph)', 'College Road', 'Collin Road', 'Colston Girls Sch', 'Colston Street (dj)', 'Comb Paddock', 'Condover Road', 'Coombe Dale', 'Coombe Lane', 'Coombe Way', 'Coronation Road', 'Cossham Hospital', 'Cotham Hill (a)', 'Cotham Hill (b)', 'Cotham Hill (c)', 'Cotham Park', 'Cotham Side', 'Cotswold Road', 'Cranbrook Road', 'Crantock Avenue', 'Crofts End (a)', 'Crofts End (b)', 'Crofts End (c)', 'Cromwell Rd Arches (a)', 'Cromwell Rd Arches (b)', 'Cross Hands (a)', 'Cross Hands (b)', 'Cross Hands (c)', 'Crosscombe Drive', 'Crow Lane Lay-by', 'Croydon Street (a)', 'Croydon Street (b)', 'Croydon Street (c)', 'Cumberland Road', 'Dalby Avenue (a)', 'Dalby Avenue (b)', 'Dalkeith Avenue', 'Dancey Mead', 'Dangerfield Avenue', "David's Road", "Day's Road", 'De Clifford Road', 'Dean Lane', 'Dean Street', 'Denbigh Street', 'Denleigh Close', 'Devon Rd Bruce Rd', 'Devon Road', 'Doncaster Road', 'Donegal Road', 'Dorchester Road', 'Dorian Road', 'Dormer Road', 'Dorset Road', 'Dovercourt Road', 'Downend Road (a)', 'Downend Road (b)', 'Downend Road (c)', 'Downend Road (d)', 'Downfield Road', 'Downleaze', 'Downs Cote Avenue', 'Downs Road', 'Dowry Square', 'Druid Hill Top', 'Duncombe Lane', 'Dunford Road', 'Dunkerry Road', 'Dunster Road', 'Durdham Park', 'Durnford Street', 'Dursley Rd Terminus', 'Dursley Road', 'Eagle Road', 'East Dundry Road', 'East Park', 'East Street (c)', 'Eastbury Road', 'Eastcote Park', 'Eastgate Centre (a)', 'Eastgate Centre (b)', 'Eastgate Centre (c)', 'Eastgate Centre (d)', 'Eastgate Road', 'Eastlake Close', 'Easton Road', 'Eastville Park (a)', 'Eastville Park (b)', 'Eastville Park (c)', 'Eastville Park (d)', 'Eden Grove', 'Edgefield Road', 'Edward Street', 'Elberton Road', 'Elmcroft Crecsent', 'Elmcroft Crescent', 'Elmore Road', 'Elton Road', 'Embassy Road', 'Ermine Way', 'Ermleet Road', 'Ettricke Drive', 'Fair Furlong', 'Falcondale Road', 'Falcondale Road (a)', 'Falcondale Road (b)', 'Farr Street', 'Feeder Road', 'Fermaine Avenue', 'Filton Avenue (a)', 'Filton Avenue (b)', 'Filton Avenue (c)', 'Filton Avenue (d)', 'Filton Road', 'Filwood Broadway', 'First Avenue', 'Five Acre Drive', 'Flowers Hill', 'Forest Road', 'Fortfield Road', 'Fossedale Avenue', 'Frayne Road', 'Frenchay Park Road', 'Froomshaw Road', 'Fulford Road', 'Furber Road', 'Gainsborough Sq (a)', 'Gainsborough Sq (b)', 'Gainsborough Sq (c)', 'Gaol Ferry Bridge', 'Gasferry Road', 'Gatcombe Road', 'General Hospital', 'Gilbert Road', 'Gilda Parade', 'Gilda Square West', 'Glebe Road', 'Glen Park', 'Glenfrome Road', 'Goodneston Road', 'Gordon Road', 'Gosforth Road', 'Grange Court Road', 'Grantham Road', 'Grasmere Close', 'Grass Meers Drive', 'Greenfield Road', 'Greenleaze', 'Greenmore Road (a)', 'Greenmore Road (b)', 'Greenway Bush Lane', 'Greenwood Road', 'Greville Road', 'Greville Street', 'Greystoke Avenue', 'Grove Road', 'Guernsey Avenue', 'Guthrie Road', 'Hadrian Close', 'Haig Close', 'Hallen Road', 'Halsbury Road', 'Hamilton Road', 'Hampstead Road', 'Harcourt Avenue', 'Harcourt Hill', 'Hareclive Road', 'Harewood Road', 'Hartcliffe Col (a)', 'Hartcliffe Col (b)', 'Hartcliffe Col (c)', 'Hartcliffe Col (d)', 'Hatherley Road', 'Haydon Gardens', 'Hazelbury Road (a)', 'Hazelbury Road (b)', 'Headley Lane', 'Headley Park Avenue', 'Heath Road (a)', 'Heath Road (b)', 'Heathcote Road', 'Heathfield Crescent', 'Heber Street', 'Henbury Road', 'Hendre Road', 'Hengrove Depot', 'Hengrove Leisure Park', 'Hengrove Road', 'Henleaze Gardens', 'Henleaze Park Drive', 'Henleaze Road', 'Henley Grove', 'Hennessy Close', 'Hicks Gate', 'High Grove', 'Highbury Road', 'Highgrove Street', 'Highridge Green', 'Highridge Green (c)', 'Highridge Road', 'Hockeys Lane', 'Holbeach Way', 'Hollisters Drive', 'Hollway Road Shops', 'Hollybush Lane', 'Holmesdale Road', 'Hooper Road', 'Horfield Health Centre', 'Horfield Road', 'Horfield Sports Cen', 'Hotwell Road (a)', 'Hotwell Road (b)', 'Hotwell Road (c)', 'Hotwells', 'Howard Road', 'Hung Road', 'Hungerford Crescent', 'Hungerford Gardens', 'Hurston Road', 'Huyton Road', 'Ikea Car Park', 'Ilchester Cres (a)', 'Ilchester Cres (b)', 'Ilchester Cres (c)', 'Ilchester Cres (d)', 'Ilminster Avenue', 'Imperial Park', 'Ingmire Road', 'Inns Court Grn (a)', 'Inns Court Grn (b)', 'Int. Trading Estate', 'Ironmould Lane', 'Islington Road', "Jacob's Wells Road", 'Jarratts Road', 'Jean Road', 'Jersey Avenue', 'Jubilee Road', 'Kellaway Crescent', 'Kennington Avenue', 'Kensal Road', 'Kersteman Road', 'Kilburn Street', "King's Drive", 'Kingfisher Drive', 'Kings Head Lane (a)', 'Kings Head Lane (b)', 'Kings Head Lane (c)', 'Kings Weston Avenue', 'Kingsdown Parade', 'Kingsholm Road', 'Kingsland Road', 'Kingsley Road', 'Kingsway Newent Ave', 'Kingsway Shops', 'Knole Lane', 'Knowle Health Ctr', 'Lacey Road', 'Ladies Mile', 'Ladman Road', 'Lake Road', 'Lakemead Grove', 'Lakemead Grove Term', 'Lamb Street', 'Lampton Avenue', 'Landseer Avenue', 'Lanercost Road', 'Langford Road', 'Langley Crescent', 'Langton Court Road', 'Lawrence Hill Depot', 'Lawrence Hl Stn (a)', 'Lawrence Hl Stn (b)', 'Lawrence Hl Stn (c)', 'Lawrence Weston Rd', 'Ledbury Road', 'Leisure Centre', 'Lenover Gardens', 'Lewins Mead (he)', 'Lewins Mead (hm)', 'Lewis Road (a)', 'Lewis Road (b)', 'Littleton Road', 'Lockleaze Road', 'Lodge Causeway', 'Lodge Road', 'Lodgeside Avenue', 'Lodway Road', 'Long Ashton P&amp;R', 'Long Close', 'Long Cross Lay-by', 'Longacre Road', 'Longmead Avenue', 'Longreach Grove', 'Longway Avenue', 'Loxton Square', 'Luckwell Road', 'Lulsgate Road', 'Lydney Road', 'Lynton Road', 'Lyppiat Road', 'Lyppincourt Road', 'Mancroft Avenue', 'Manston Close', 'Mardyke Ferry Road', 'Mardyke Ferry Road (a)', 'Marguerite Road', 'Marissal Road', 'Maritime Museum', 'Market Square', 'Marlborough St (rm)', 'Marling Road', 'Marlwood Drive', 'Marsh Lane', 'Martock Road', 'Maskelyne Road', 'Mayfield Park', 'Maynard Road', 'Maywood Road', 'Mclaren Road', 'Mead Street', 'Meadow Grove', 'Meardon Road', 'Melton Crescent', 'Melvin Square (a)', 'Melvin Square (b)', 'Melvin Square (c)', 'Melvin Square (d)', 'Mendip Road', 'Mendip View Avenue', 'Merchants Road', 'Mill Lane', "Monk's Park Avenue", "Monk's Park Way", 'Monmouth Street', 'Montrose Park', 'Moor Grove', 'Morden Walk', 'Morley Street', 'Morris Road', 'Morrisons Fishponds', 'Muller Rd Depot (a)', 'Muller Rd Depot (b)', 'Muller Rd Depot (c)', 'Muller Road Top (a)', 'Muller Road Top (b)', 'Muller Road Top (c)', 'Muller Road Top (d)', 'Mulready Close', 'Musgrove Close', 'Myrtle Road', 'Napier Road', 'Narroways Road (a)', 'Narroways Road (b)', 'Narroways Road (c)', 'Nelson Street (hc)', 'Nelson Street (hd)', 'Netham Road', 'Nevil Road', 'New Charlotte Street (a)', 'New Charlotte Street (b)', 'New Fosseway Road', 'New Kingsley Rd', 'New Queen Street', 'New Station Road (a)', 'New Station Road (b)', 'Newland Drive', 'Newlyn Avenue', 'Newport Street', 'Nibley Rd Coaley Rd', 'Nibley Rd Hung Rd', 'Nine Tree Hill (a)', 'Nine Tree Hill (b)', 'Nine Tree Hill (c)', 'Nine Tree Hill (d)', 'North Street (rn)', 'Northcote Road', 'Northover Road', 'Northumbria Drive', 'Novers Lane', 'Nutgrove Avenue', 'Oatlands Avenue', 'Old Market Street', 'Old Sneed Road', 'Orchard Road', 'Orchard Square', 'Orpen Gardens', 'Orwell Street', 'Osborne Avenue', 'Overndale Road', 'Oxford Place', 'Oxford Street', 'Paintworks', 'Park Avenue (a)', 'Park Avenue (b)', 'Park Avenue (c)', 'Park Row (dh)', 'Park Row (di)', 'Park St Top (da)', 'Park St Top (db)', 'Park Street (pf)', 'Parnall Road', "Parry's Lane", 'Parson St Station', 'Parson St West St', 'Parson Street', 'Paultow Road', 'Pembroke Avenue', 'Pen Park Road', 'Penn Street A', 'Penn Street B', 'Penn Street C', 'Penpole Lane', 'Percival Road', 'Perrycroft Road', 'Phoenix Grove', 'Porlock Road', 'Portway Akeman Way', 'Portway Burnham Rd', 'Portway Grove Leaze', 'Portway P&amp;r Site', 'Portway Park Road', 'Portway Portview Rd', 'Portway Riverleaze', 'Portway Roman Way', 'Portway Station Rd', 'Portway Sylvan Way', 'Portway Woodwell Rd', 'Prewett Street', 'Priddy Drive', 'Prince Street (bp)', 'Prince Street (bq)', 'Priory Gardens', 'Priory Road (a)', 'Prospect Place', 'Pylle Hill Cres (a)', 'Pylle Hill Cres (b)', 'Pynne Road (a)', 'Pynne Road (b)', 'Quadrant West', 'Quantock Road', 'Quarry Way', 'Quay Street (cs)', 'Quay Street (ct)', "Queen's Avenue", "Queen's Drive", "Queen's Road", "Queen's Road (de)", "Queen's Road (df)", "Queen's Road (dg)", 'Raleigh Road', 'Raven Hill', 'Rayleigh Road', 'Raymend Road', 'Red House Lane', "Red Maid's School", 'Redcliff Hill (to)', 'Redcliff Hill (tp)', 'Redcliff Hill (tq)', 'Redcliff Hill (tr)', 'Redcliff Hill (ts)', 'Redcliffe Way (tn)', 'Redcliffe Way (tt)', 'Redland Court Road', 'Redland Park', 'Redland Station (a)', 'Redland Station (b)', 'Redland Station (c)', 'Reedley Road', 'Repton Road', 'Richmond Street', 'Ripon Road', 'Risdale Road', 'River View', 'Robertson Road', 'Robertson Road (a)', 'Rockleaze Road', 'Rodbourne Road', 'Rodney Road', 'Rookery Way', 'Rose Walk', 'Royate Hill', 'Rupert Street (ca)', 'Rupert Street (cb)', 'Rupert Street (ha)', 'Rupert Street (hb)', 'Rupert Street (hf)', 'Rupert Street (hg)', 'Russell Town Avenue', 'Ryde Road (a)', 'Rylestone Grove', 'Salcombe Green', 'Salisbury Avenue', 'Salisbury Road', 'Sandburrows Road', 'Sandholme Road (a)', 'Sandholme Road (b)', 'Sandholme Road (c)', 'Sandholme Road (d)', 'Sandyleaze', 'Saville Road', 'Sea Mills Lane', 'Sea Mills Square (a)', 'Sea Mills Square (b)', 'Sea Mills Square (c)', 'Sea Walls', 'Sefton Park Road', 'Selbrooke Crescent', 'Seneca Street', 'Severnside Trad Est', 'Sevier Street', 'Shaldon Road', 'Sheldrake Drive', 'Sherrin Way', 'Sherrin Wy Terminus', 'Sherwell Road', 'Ship Lane', 'Shirehampton Gr (a)', 'Shirehampton Gr (b)', 'Shirehampton Gr (c)', 'Shirehampton Park', 'Showering Road', 'Shuter Road', 'Sion Road', "Sir John's Lane", 'Skills Academy', 'Small Lane', 'Smeaton Road', 'Smoke Lane', 'Smoke Lane Ind. Est', 'Smyth Road', 'Snowdon Road', 'Somerfield H.q.', 'Somerset Square', 'Somerset Street', 'Somerset Terrace', 'Sommerville Rd (a)', 'Sommerville Rd (c)', 'Soundwell Road', 'Southfield Road', 'Southmead Hosp (a)', 'Southmead Hosp (b)', 'Southmead Hospital (c)', 'Southmead Hospital (d)', 'Southside Close', 'Southville Place', 'Southwood Ave (a)', 'Southwood Ave (b)', 'Southwood Ave (c)', 'Southwood Ave (d)', 'Southwood Drive', "Sports Cen W'church", 'Spring Street', 'Springfield Grove', "St Andrew's Rd Stn", "St Andrew's Road", 'St Barnabas Close', "St Bede's Road", 'St Brelades Grove', "St Brendan's Coll", "St Dunstan's Road", 'St Josephs Road', "St Mary's Road", "St Mary's Walk", "St Oswald's Road", "St Peter's Hospice", 'St Phillips Road', "St Ursula's Hgh Sch", 'St. Peters Rise', 'Stafford Road', 'Stanbury Avenue', 'Standon Way', 'Stapleton Church', 'Stapleton Road (a)', 'Stapleton Road (b)', 'Stapleton Road Stn', 'Stevens Crescent', 'Sth Liberty La (a)', 'Stillingfleet Road', 'Stockwood Crescent', 'Stockwood Lane', 'Stockwood Library', 'Stockwood Road', 'Stoke Hill', 'Stoke Lane', 'Stoke Lane Shops', 'Stokes Croft (ro)', 'Stokes Croft (rp)', 'Stothard Road', 'Straits Pde (a)', 'Straits Pde (b)', 'Stroud Road', 'Students Union', 'Sturminster Close', 'Sturminster Road (a)', 'Sturminster Road (b)', 'Sturminster Road (c)', 'Sunderland Place', 'Sunny Hill', 'Sunnydene', 'Swainswick', 'Swane Road', 'Swiss Drive', 'Sylvan Way', 'Symes Avenue', 'Tanorth Road', 'Teignmouth Road', 'Temple Meads (ta)', 'Temple Meads (tb)', 'Temple Meads (te)', 'Temple Meads (tf)', 'Temple Meads (tg)', 'Temple Meads (tj)', 'Temple Meads (tk)', 'Temple Way (of)', 'Temple Way (og)', 'Temple Way (oh)', 'Temple Way (oi)', 'Temple Way (th)', 'Temple Way (tl)', 'Terrell Gardens', 'Tesco Brislington', 'Tesco Car Park', 'Thatchers Close', 'The Avenue', 'The Bean Acre', 'The Boulevard', 'The Centre (cc)', 'The Centre (cd)', 'The Centre (ce)', 'The Centre (cf)', 'The Centre (cg)', 'The Centre (ch)', 'The Centre (ci)', 'The Centre (cj)', 'The Centre (ck)', 'The Centre (cl)', 'The Centre (cm)', 'The Centre (cn)', 'The Centre (co)', 'The Centre (cp)', 'The Centre (cq)', 'The Centre (cr)', 'The Centre (cu)', 'The Centre (cv)', 'The Chine', 'The Coots', 'The Dingle', 'The Grove (bm)', 'The Haymarket (re)', 'The Haymarket (rf)', 'The Haymarket (rg)', 'The Haymarket (rh)', 'The Haymarket (ri)', 'The Haymarket (rj)', 'The Haymarket (rs)', 'The Horsefair (sk)', 'The Horsefair (sl)', 'The Horsefair (sm)', 'The Horsefair (sn)', 'The Horsefair (so)', 'The Horsefair (sp)', 'The Malago', 'The Pentagon', 'The Ridgeway', 'The Rock', 'The Salutation (a)', 'The Salutation (b)', 'The Salutation (c)', 'Thicket Avenue', 'Thicket Road', 'Third Way', 'Thrissell Street', 'Thurlestone', 'Tilling Road', 'Timberscombe Walk', 'Tormarton Crescent', 'Toronto Road', 'Torpoint Road', 'Totterdown Bridge', 'Tramway Road', 'Trendlewood Park', 'Triangle West (dc)', 'Triangle West (dd)', 'Troopers Hill Road', 'Tufton Avenue', 'Turnbridge Road', 'Turtlegate Avenue', 'Turville Drive', 'Two Mile Court', "Tyndall's Park Road", 'Union Street (sf)', 'Union Street (sg)', 'Union Street (sh)', 'Union Street (si)', 'Union Street (sj)', 'Upper Belgrave Road', 'Upper Cranbrook Road', 'Utd Reform Church', 'Vale Lane', 'Vassal Road', 'Ventnor Road', 'Victoria Rooms', 'Victoria Square', 'Victoria St (bf)', 'Victoria St (bg)', 'Victoria St (bh)', 'Victoria St (tu)', 'Victoria St (tv)', 'Villiers Road', 'Vivian St Orwell St', 'Warwick Road', 'Waterdale Gardens', 'Watling Way', 'Wedmore Vale', 'Wellington Hill', 'Wesley Street', 'Wessex Avenue', 'West Street', 'West Town Lane', 'West Town Park', 'Westbury High St (a)', 'Westbury Lane', 'Westbury Road (a)', 'Westbury Road (b)', 'Westbury Road (c)', 'Westbury Road (d)', 'Westbury Vil (a)', 'Westbury Vil (b)', 'Westbury Vil (c)', 'Westbury Vil (d)', 'Westbury Vil (e)', 'Westbury Vil (f)', 'Westover Road', 'Weymouth Road', 'Wharnecliffe Gdns', 'Whitecross Avenue', 'Whitefield Avenue', 'Whiteleaze', 'Whiteway Road', 'Whitewood Road', 'Whitland Avenue', 'Whitmore Avenue', 'Wick Crescent', 'Wick Road', 'William Street', 'Willinton Road', 'Wills Hall', 'Wills Way', 'Wilton Close', 'Winchester Road', 'Windmill Hill', 'Windmill Lane', 'Windsor Terrace', 'Wine Street (sc)', 'Wine Street (se)', 'Winford Grove', 'Winterstoke Road', 'Woburn Road', 'Woodland Avenue', 'Woodland Way', 'Woodleaze', 'Wootton Crescent', 'Wootton Park', 'Worcester Close', 'Wot Baptist Church', 'Wren Drive', 'Wrington Crescent', 'Wyndham Crescent', 'York Road', 'Zetland Rd Jctn (b)', 'Zetland Rd Jtn (a)', 'Zetland Rd Jtn (c)', 'Zetland Rd Jtn (d)']</t>
         </is>
@@ -709,10 +737,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E5" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -761,14 +789,20 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7014</v>
+        <v>658</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>['19', '2', '336', 'Bus Station', 'Lamp Post', 'No', 'Pole', 'Shelter']</t>
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7008</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>['Bus Station', 'Lamp Post', 'No', 'Pole', 'Shelter']</t>
         </is>
       </c>
     </row>
@@ -783,14 +817,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E6" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -817,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -835,14 +869,20 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>1011</v>
+        <v>1161</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>['1160', 'N/A', 'No', 'Yes']</t>
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1007</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['N/A', 'No', 'Yes']</t>
         </is>
       </c>
     </row>
@@ -857,14 +897,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E7" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -897,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -913,14 +953,20 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3160</v>
+        <v>1010</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>['211', 'No', 'Yes', 'yes']</t>
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3157</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>['No', 'Yes', 'yes']</t>
         </is>
       </c>
     </row>

--- a/examples/UK OGD/bristol bus stops/profile.xlsx
+++ b/examples/UK OGD/bristol bus stops/profile.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
